--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_11_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_11_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1823612.588509512</v>
+        <v>1843586.610626825</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7311922.400320279</v>
+        <v>7311922.400320275</v>
       </c>
     </row>
     <row r="8">
@@ -706,28 +706,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>15.26809192273228</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -740,10 +740,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>12.73205987707308</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -752,13 +752,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,13 +794,13 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>12.73205987707308</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="D4" t="n">
-        <v>10.75721046822444</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>13.47865120333094</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -858,10 +858,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>15.26809192273228</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>15.26809192273228</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>12.73205987707308</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>15.30273751513505</v>
@@ -995,7 +995,7 @@
         <v>15.30273751513505</v>
       </c>
       <c r="I6" t="n">
-        <v>15.30273751513505</v>
+        <v>12.73205987707309</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1062,19 +1062,19 @@
         <v>15.30273751513505</v>
       </c>
       <c r="E7" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>10.75721046822444</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>10.75721046822444</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>4.067871852857845</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>4.067871852857841</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1296,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>25.62029119463083</v>
+        <v>23.19571111787229</v>
       </c>
       <c r="E10" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>23.19571111787229</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1378,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>249.6087062450094</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>411.8472125920607</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>77.25676497358231</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>130.2772954016887</v>
       </c>
       <c r="T11" t="n">
         <v>207.9692892133734</v>
@@ -1429,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>335.9028674351118</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1463,7 +1463,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>135.4946483329072</v>
+        <v>135.4946483329073</v>
       </c>
       <c r="H12" t="n">
         <v>94.37926369119775</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4409498386617</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>108.8368599137244</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>26.22646567133022</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>166.880795675055</v>
       </c>
       <c r="T13" t="n">
         <v>221.3227360255122</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2344822917747</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>42.07670534395793</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>130.2772954016887</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>207.9692892133734</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.0692109139906</v>
       </c>
       <c r="V14" t="n">
-        <v>157.4835776687621</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>94.37926369119775</v>
       </c>
       <c r="I15" t="n">
-        <v>25.7404033870213</v>
+        <v>25.74040338702139</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>169.6188783484725</v>
+        <v>197.003810860145</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.3227360255122</v>
       </c>
       <c r="U16" t="n">
         <v>286.2344822917747</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>256.3999831515011</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>411.8472125920607</v>
       </c>
       <c r="H17" t="n">
-        <v>304.0859074973321</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1103599787067669</v>
+        <v>77.25676497358231</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>207.9692892133734</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0692109139906</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>20.08381805106411</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>94.37926369119775</v>
       </c>
       <c r="I18" t="n">
-        <v>25.7404033870214</v>
+        <v>25.74040338702139</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4409498386617</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>107.5984276961118</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2344822917747</v>
       </c>
       <c r="V19" t="n">
-        <v>198.2950778982674</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>114.1641541657938</v>
       </c>
     </row>
     <row r="20">
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>101.4988375926261</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>77.25676497358231</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>130.2772954016887</v>
+        <v>121.8299666658842</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2180,7 +2180,7 @@
         <v>94.37926369119775</v>
       </c>
       <c r="I21" t="n">
-        <v>25.7404033870214</v>
+        <v>25.74040338702139</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>79.7155385788614</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4409498386617</v>
       </c>
       <c r="H22" t="n">
-        <v>27.43240956386128</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>107.5984276961119</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.003810860145</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.3227360255122</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>207.9692892133734</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0692109139913</v>
+        <v>251.0692109139906</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2417,7 +2417,7 @@
         <v>94.37926369119775</v>
       </c>
       <c r="I24" t="n">
-        <v>25.7404033870214</v>
+        <v>25.74040338702139</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>166.880795675055</v>
+        <v>197.003810860145</v>
       </c>
       <c r="T25" t="n">
-        <v>221.3227360255122</v>
+        <v>191.1997208404222</v>
       </c>
       <c r="U25" t="n">
         <v>286.2344822917747</v>
@@ -2654,7 +2654,7 @@
         <v>94.37926369119775</v>
       </c>
       <c r="I27" t="n">
-        <v>25.7404033870214</v>
+        <v>25.74040338702139</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2718,22 +2718,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4409498386617</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.4460009586983</v>
+        <v>10.50550946940041</v>
       </c>
       <c r="I28" t="n">
-        <v>108.0125978889991</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>107.5984276961119</v>
+        <v>107.5984276961118</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.003810860145</v>
       </c>
       <c r="T28" t="n">
         <v>221.3227360255122</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.8472125920603</v>
+        <v>411.8472125920607</v>
       </c>
       <c r="H29" t="n">
         <v>304.0859074973321</v>
@@ -2848,7 +2848,7 @@
         <v>207.9692892133734</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0692109139904</v>
+        <v>251.0692109139906</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2891,7 +2891,7 @@
         <v>94.37926369119775</v>
       </c>
       <c r="I30" t="n">
-        <v>25.7404033870214</v>
+        <v>25.74040338702139</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>107.5984276961118</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>221.3227360255122</v>
       </c>
       <c r="U31" t="n">
-        <v>234.5306246147349</v>
+        <v>242.7790524596054</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3128,7 +3128,7 @@
         <v>94.37926369119775</v>
       </c>
       <c r="I33" t="n">
-        <v>25.7404033870214</v>
+        <v>25.74040338702139</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>108.8368599137244</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>166.880795675055</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.3227360255122</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2344822917747</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>98.12785741866385</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3274,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>25.09267578066411</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>77.25676497358231</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>31.66449117453501</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>94.37926369119775</v>
       </c>
       <c r="I36" t="n">
-        <v>25.7404033870214</v>
+        <v>25.74040338702139</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4409498386617</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.003810860145</v>
+        <v>46.1442958714522</v>
       </c>
       <c r="T37" t="n">
-        <v>221.3227360255122</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2344822917747</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>195.5866402039473</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>9.982871127767744</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>411.8472125920607</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>77.25676497358231</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>130.2772954016887</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>207.9692892133734</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>80.22681269517985</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3587,7 +3587,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>147.4450655646384</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -3599,10 +3599,10 @@
         <v>135.4946483329072</v>
       </c>
       <c r="H39" t="n">
-        <v>94.37926369119737</v>
+        <v>94.37926369119775</v>
       </c>
       <c r="I39" t="n">
-        <v>25.7404033870214</v>
+        <v>25.74040338702139</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,19 +3663,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>165.1908443389904</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4409498386617</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>107.5984276961118</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.003810860145</v>
       </c>
       <c r="T40" t="n">
         <v>221.3227360255122</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>268.5950879085023</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>15.59471047462827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3754,10 +3754,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.8472125920607</v>
+        <v>354.1343783249985</v>
       </c>
       <c r="H41" t="n">
-        <v>304.0859074973321</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>77.25676497358231</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>130.2772954016887</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>207.9692892133734</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>94.37926369119775</v>
       </c>
       <c r="I42" t="n">
-        <v>25.7404033870214</v>
+        <v>25.74040338702139</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.4815984973776</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>85.23897346582395</v>
       </c>
       <c r="H43" t="n">
-        <v>148.4460009586983</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>108.8368599137244</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.003810860145</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.3227360255122</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2344822917747</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>411.8472125920607</v>
@@ -4030,22 +4030,22 @@
         <v>130.2772954016887</v>
       </c>
       <c r="T44" t="n">
-        <v>162.3750100091367</v>
+        <v>207.9692892133734</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0692109139906</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>291.3114491005193</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>94.37926369119775</v>
       </c>
       <c r="I45" t="n">
-        <v>25.7404033870214</v>
+        <v>25.74040338702139</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4409498386617</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.4460009586983</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>108.8368599137244</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>107.5984276961119</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.3227360255122</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2344822917747</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>33.18696454816035</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>119.9367876663239</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4333,19 +4333,19 @@
         <v>1.224219001210804</v>
       </c>
       <c r="K2" t="n">
-        <v>1.224219001210804</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="L2" t="n">
-        <v>1.224219001210804</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="M2" t="n">
-        <v>15.7618196405891</v>
+        <v>46.6733494211619</v>
       </c>
       <c r="N2" t="n">
-        <v>30.9115297805728</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="O2" t="n">
-        <v>46.0612399205565</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="P2" t="n">
         <v>61.2109500605402</v>
@@ -4354,25 +4354,25 @@
         <v>51.11933469231312</v>
       </c>
       <c r="R2" t="n">
-        <v>35.69701961884617</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="S2" t="n">
-        <v>35.69701961884617</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="T2" t="n">
-        <v>35.69701961884617</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="U2" t="n">
-        <v>35.69701961884617</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="V2" t="n">
-        <v>35.69701961884617</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="W2" t="n">
-        <v>35.69701961884617</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="X2" t="n">
-        <v>35.69701961884617</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="Y2" t="n">
         <v>35.69701961884617</v>
@@ -4385,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.43566227534506</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="C3" t="n">
-        <v>17.43566227534506</v>
+        <v>32.89297289669359</v>
       </c>
       <c r="D3" t="n">
         <v>17.43566227534506</v>
@@ -4400,10 +4400,10 @@
         <v>17.43566227534506</v>
       </c>
       <c r="G3" t="n">
-        <v>17.43566227534506</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="H3" t="n">
-        <v>17.43566227534506</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="I3" t="n">
         <v>1.978351653996518</v>
@@ -4412,16 +4412,16 @@
         <v>1.224219001210804</v>
       </c>
       <c r="K3" t="n">
-        <v>1.224219001210804</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="L3" t="n">
-        <v>15.7618196405891</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="M3" t="n">
-        <v>15.7618196405891</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="N3" t="n">
-        <v>15.7618196405891</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="O3" t="n">
         <v>30.9115297805728</v>
@@ -4433,28 +4433,28 @@
         <v>61.2109500605402</v>
       </c>
       <c r="R3" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="S3" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="T3" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="U3" t="n">
         <v>45.75363943919166</v>
       </c>
       <c r="V3" t="n">
-        <v>30.29632881784312</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="W3" t="n">
-        <v>17.43566227534506</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="X3" t="n">
-        <v>17.43566227534506</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.43566227534506</v>
+        <v>45.75363943919166</v>
       </c>
     </row>
     <row r="4">
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.54739878238201</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="C4" t="n">
-        <v>12.09008816103347</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="D4" t="n">
-        <v>1.224219001210804</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="E4" t="n">
-        <v>1.224219001210804</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="F4" t="n">
         <v>1.224219001210804</v>
@@ -4506,34 +4506,34 @@
         <v>61.2109500605402</v>
       </c>
       <c r="P4" t="n">
-        <v>58.46202002507908</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="Q4" t="n">
-        <v>43.00470940373054</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="R4" t="n">
-        <v>43.00470940373054</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="S4" t="n">
-        <v>43.00470940373054</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="T4" t="n">
-        <v>43.00470940373054</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="U4" t="n">
-        <v>43.00470940373054</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="V4" t="n">
-        <v>43.00470940373054</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="W4" t="n">
-        <v>43.00470940373054</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="X4" t="n">
-        <v>43.00470940373054</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="Y4" t="n">
-        <v>43.00470940373054</v>
+        <v>61.2109500605402</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>51.11933469231312</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="C5" t="n">
-        <v>51.11933469231312</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="D5" t="n">
-        <v>51.11933469231312</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="E5" t="n">
         <v>35.69701961884617</v>
@@ -4573,16 +4573,16 @@
         <v>1.224219001210804</v>
       </c>
       <c r="L5" t="n">
+        <v>1.224219001210804</v>
+      </c>
+      <c r="M5" t="n">
         <v>16.37392914119451</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>31.52363928117821</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>46.6733494211619</v>
-      </c>
-      <c r="O5" t="n">
-        <v>61.2109500605402</v>
       </c>
       <c r="P5" t="n">
         <v>61.2109500605402</v>
@@ -4597,22 +4597,22 @@
         <v>51.11933469231312</v>
       </c>
       <c r="T5" t="n">
-        <v>51.11933469231312</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="U5" t="n">
-        <v>51.11933469231312</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="V5" t="n">
-        <v>51.11933469231312</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="W5" t="n">
-        <v>51.11933469231312</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="X5" t="n">
-        <v>51.11933469231312</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="Y5" t="n">
-        <v>51.11933469231312</v>
+        <v>35.69701961884617</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="C6" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="D6" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="E6" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="F6" t="n">
-        <v>48.35028351804213</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="G6" t="n">
-        <v>32.89297289669359</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="H6" t="n">
-        <v>17.43566227534506</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="I6" t="n">
         <v>1.978351653996518</v>
@@ -4649,16 +4649,16 @@
         <v>1.224219001210804</v>
       </c>
       <c r="K6" t="n">
-        <v>16.37392914119451</v>
+        <v>15.7618196405891</v>
       </c>
       <c r="L6" t="n">
-        <v>16.37392914119451</v>
+        <v>15.7618196405891</v>
       </c>
       <c r="M6" t="n">
-        <v>16.37392914119451</v>
+        <v>15.7618196405891</v>
       </c>
       <c r="N6" t="n">
-        <v>16.37392914119451</v>
+        <v>15.7618196405891</v>
       </c>
       <c r="O6" t="n">
         <v>30.9115297805728</v>
@@ -4670,28 +4670,28 @@
         <v>61.2109500605402</v>
       </c>
       <c r="R6" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="S6" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="T6" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="U6" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="V6" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="W6" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="X6" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="Y6" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
     </row>
     <row r="7">
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>58.46202002507908</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="C7" t="n">
-        <v>58.46202002507908</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="D7" t="n">
-        <v>43.00470940373054</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="E7" t="n">
         <v>27.54739878238201</v>
@@ -4716,10 +4716,10 @@
         <v>27.54739878238201</v>
       </c>
       <c r="G7" t="n">
-        <v>27.54739878238201</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="H7" t="n">
-        <v>27.54739878238201</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="I7" t="n">
         <v>16.68152962255934</v>
@@ -4731,13 +4731,13 @@
         <v>1.224219001210804</v>
       </c>
       <c r="L7" t="n">
-        <v>16.37392914119451</v>
+        <v>15.7618196405891</v>
       </c>
       <c r="M7" t="n">
-        <v>31.52363928117821</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="N7" t="n">
-        <v>46.6733494211619</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="O7" t="n">
         <v>61.2109500605402</v>
@@ -4786,19 +4786,19 @@
         <v>40.631385380739</v>
       </c>
       <c r="D8" t="n">
-        <v>40.631385380739</v>
+        <v>36.52242391320583</v>
       </c>
       <c r="E8" t="n">
-        <v>40.631385380739</v>
+        <v>36.52242391320583</v>
       </c>
       <c r="F8" t="n">
-        <v>33.68588463153553</v>
+        <v>29.57692316400236</v>
       </c>
       <c r="G8" t="n">
-        <v>18.22857401018699</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="H8" t="n">
-        <v>18.22857401018699</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="I8" t="n">
         <v>14.11961254265382</v>
@@ -4807,19 +4807,19 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K8" t="n">
-        <v>2.049623295570466</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L8" t="n">
-        <v>27.41371157825499</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M8" t="n">
-        <v>52.77779986093951</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="N8" t="n">
-        <v>52.77779986093951</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="O8" t="n">
-        <v>77.1170764958388</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P8" t="n">
         <v>102.4811647785233</v>
@@ -4944,22 +4944,22 @@
         <v>99.73223474306219</v>
       </c>
       <c r="D10" t="n">
-        <v>73.85315272828358</v>
+        <v>76.30222351288816</v>
       </c>
       <c r="E10" t="n">
-        <v>47.97407071350496</v>
+        <v>50.42314149810954</v>
       </c>
       <c r="F10" t="n">
-        <v>47.97407071350496</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="G10" t="n">
-        <v>47.97407071350496</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="H10" t="n">
-        <v>47.97407071350496</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="I10" t="n">
-        <v>47.97407071350496</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="J10" t="n">
         <v>24.54405948333093</v>
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1247.426333584972</v>
+        <v>750.600285993881</v>
       </c>
       <c r="C11" t="n">
-        <v>878.4638166445607</v>
+        <v>381.6377690534693</v>
       </c>
       <c r="D11" t="n">
-        <v>878.4638166445607</v>
+        <v>381.6377690534693</v>
       </c>
       <c r="E11" t="n">
-        <v>878.4638166445607</v>
+        <v>129.507762745379</v>
       </c>
       <c r="F11" t="n">
-        <v>467.4779118549531</v>
+        <v>129.507762745379</v>
       </c>
       <c r="G11" t="n">
-        <v>51.47062640842712</v>
+        <v>129.507762745379</v>
       </c>
       <c r="H11" t="n">
-        <v>51.47062640842712</v>
+        <v>129.507762745379</v>
       </c>
       <c r="I11" t="n">
         <v>51.47062640842712</v>
       </c>
       <c r="J11" t="n">
-        <v>329.9913548027439</v>
+        <v>162.5857057823909</v>
       </c>
       <c r="K11" t="n">
-        <v>547.2625734173959</v>
+        <v>379.8569243970429</v>
       </c>
       <c r="L11" t="n">
-        <v>853.7084944021823</v>
+        <v>686.3028453818293</v>
       </c>
       <c r="M11" t="n">
-        <v>1226.358064749472</v>
+        <v>1323.251847186115</v>
       </c>
       <c r="N11" t="n">
-        <v>1609.651303116945</v>
+        <v>1706.545085553588</v>
       </c>
       <c r="O11" t="n">
-        <v>1958.248977943291</v>
+        <v>2055.142760379934</v>
       </c>
       <c r="P11" t="n">
-        <v>2221.268027456376</v>
+        <v>2318.161809893019</v>
       </c>
       <c r="Q11" t="n">
         <v>2507.009260908516</v>
@@ -5068,25 +5068,25 @@
         <v>2573.531320421356</v>
       </c>
       <c r="S11" t="n">
-        <v>2573.531320421356</v>
+        <v>2441.938092742883</v>
       </c>
       <c r="T11" t="n">
-        <v>2363.461331316938</v>
+        <v>2231.868103638465</v>
       </c>
       <c r="U11" t="n">
-        <v>2363.461331316938</v>
+        <v>2231.868103638465</v>
       </c>
       <c r="V11" t="n">
-        <v>2363.461331316938</v>
+        <v>1900.805216294894</v>
       </c>
       <c r="W11" t="n">
-        <v>2363.461331316938</v>
+        <v>1900.805216294894</v>
       </c>
       <c r="X11" t="n">
-        <v>2024.165505624906</v>
+        <v>1527.339458033814</v>
       </c>
       <c r="Y11" t="n">
-        <v>1634.026173649094</v>
+        <v>1137.200126058003</v>
       </c>
     </row>
     <row r="12">
@@ -5102,10 +5102,10 @@
         <v>764.3733272413059</v>
       </c>
       <c r="D12" t="n">
-        <v>615.4389175800545</v>
+        <v>615.4389175800546</v>
       </c>
       <c r="E12" t="n">
-        <v>456.201462574599</v>
+        <v>456.2014625745991</v>
       </c>
       <c r="F12" t="n">
         <v>309.6669046014841</v>
@@ -5114,7 +5114,7 @@
         <v>172.8036234571333</v>
       </c>
       <c r="H12" t="n">
-        <v>77.4710338700649</v>
+        <v>77.47103387006489</v>
       </c>
       <c r="I12" t="n">
         <v>51.47062640842712</v>
@@ -5123,22 +5123,22 @@
         <v>223.6622844990725</v>
       </c>
       <c r="K12" t="n">
-        <v>644.5860975745757</v>
+        <v>382.7655129321229</v>
       </c>
       <c r="L12" t="n">
-        <v>904.8425639158711</v>
+        <v>643.0219792734183</v>
       </c>
       <c r="M12" t="n">
-        <v>1227.906452803957</v>
+        <v>966.0858681615045</v>
       </c>
       <c r="N12" t="n">
-        <v>1573.929526440055</v>
+        <v>1444.000821389915</v>
       </c>
       <c r="O12" t="n">
-        <v>2053.602678427199</v>
+        <v>1738.324537473662</v>
       </c>
       <c r="P12" t="n">
-        <v>2270.490342378294</v>
+        <v>2270.490342378295</v>
       </c>
       <c r="Q12" t="n">
         <v>2573.531320421356</v>
@@ -5147,7 +5147,7 @@
         <v>2573.531320421356</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.802791645261</v>
+        <v>2434.802791645262</v>
       </c>
       <c r="T12" t="n">
         <v>2240.143710981738</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>624.3320611780094</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="C13" t="n">
-        <v>624.3320611780094</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="D13" t="n">
-        <v>624.3320611780094</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="E13" t="n">
-        <v>476.4189675956163</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="F13" t="n">
-        <v>329.5290200977059</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="G13" t="n">
-        <v>161.4068485435022</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="H13" t="n">
-        <v>161.4068485435022</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="I13" t="n">
         <v>51.47062640842712</v>
@@ -5223,28 +5223,28 @@
         <v>1504.812354733476</v>
       </c>
       <c r="R13" t="n">
-        <v>1478.320975267486</v>
+        <v>1504.812354733476</v>
       </c>
       <c r="S13" t="n">
-        <v>1478.320975267486</v>
+        <v>1336.245894455642</v>
       </c>
       <c r="T13" t="n">
-        <v>1254.762656049797</v>
+        <v>1112.687575237953</v>
       </c>
       <c r="U13" t="n">
-        <v>1254.762656049797</v>
+        <v>823.5618355492919</v>
       </c>
       <c r="V13" t="n">
-        <v>1254.762656049797</v>
+        <v>568.8773473434051</v>
       </c>
       <c r="W13" t="n">
-        <v>1254.762656049797</v>
+        <v>279.4601773064445</v>
       </c>
       <c r="X13" t="n">
-        <v>1026.773105151779</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="Y13" t="n">
-        <v>805.9805260082492</v>
+        <v>51.47062640842712</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1264.252069242805</v>
+        <v>878.4638166445607</v>
       </c>
       <c r="C14" t="n">
-        <v>1264.252069242805</v>
+        <v>878.4638166445607</v>
       </c>
       <c r="D14" t="n">
-        <v>1264.252069242805</v>
+        <v>878.4638166445607</v>
       </c>
       <c r="E14" t="n">
         <v>878.4638166445607</v>
@@ -5305,25 +5305,25 @@
         <v>2573.531320421356</v>
       </c>
       <c r="S14" t="n">
-        <v>2573.531320421356</v>
+        <v>2441.938092742883</v>
       </c>
       <c r="T14" t="n">
-        <v>2573.531320421356</v>
+        <v>2231.868103638465</v>
       </c>
       <c r="U14" t="n">
-        <v>2573.531320421356</v>
+        <v>1978.26284008898</v>
       </c>
       <c r="V14" t="n">
-        <v>2414.456999543818</v>
+        <v>1647.199952745409</v>
       </c>
       <c r="W14" t="n">
-        <v>2414.456999543818</v>
+        <v>1294.431297475295</v>
       </c>
       <c r="X14" t="n">
-        <v>2040.991241282738</v>
+        <v>920.9655392142151</v>
       </c>
       <c r="Y14" t="n">
-        <v>1650.851909306927</v>
+        <v>920.9655392142151</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>938.8263565224324</v>
+        <v>938.8263565224329</v>
       </c>
       <c r="C15" t="n">
-        <v>764.3733272413054</v>
+        <v>764.3733272413059</v>
       </c>
       <c r="D15" t="n">
-        <v>615.4389175800541</v>
+        <v>615.4389175800545</v>
       </c>
       <c r="E15" t="n">
-        <v>456.2014625745985</v>
+        <v>456.201462574599</v>
       </c>
       <c r="F15" t="n">
-        <v>309.6669046014836</v>
+        <v>309.6669046014841</v>
       </c>
       <c r="G15" t="n">
-        <v>172.8036234571332</v>
+        <v>172.8036234571333</v>
       </c>
       <c r="H15" t="n">
-        <v>77.47103387006479</v>
+        <v>77.4710338700649</v>
       </c>
       <c r="I15" t="n">
         <v>51.47062640842712</v>
@@ -5360,46 +5360,46 @@
         <v>223.6622844990725</v>
       </c>
       <c r="K15" t="n">
-        <v>382.7655129321229</v>
+        <v>644.5860975745757</v>
       </c>
       <c r="L15" t="n">
-        <v>643.0219792734183</v>
+        <v>1090.191999819269</v>
       </c>
       <c r="M15" t="n">
-        <v>1107.842087884681</v>
+        <v>1413.255888707355</v>
       </c>
       <c r="N15" t="n">
-        <v>1744.791089688966</v>
+        <v>1759.278962343453</v>
       </c>
       <c r="O15" t="n">
-        <v>2039.114805772713</v>
+        <v>2053.6026784272</v>
       </c>
       <c r="P15" t="n">
-        <v>2256.002469723809</v>
+        <v>2270.490342378295</v>
       </c>
       <c r="Q15" t="n">
-        <v>2559.04344776687</v>
+        <v>2573.531320421356</v>
       </c>
       <c r="R15" t="n">
         <v>2573.531320421356</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.802791645261</v>
+        <v>2434.802791645262</v>
       </c>
       <c r="T15" t="n">
         <v>2240.143710981738</v>
       </c>
       <c r="U15" t="n">
-        <v>2012.042957472931</v>
+        <v>2012.042957472932</v>
       </c>
       <c r="V15" t="n">
         <v>1776.890849241189</v>
       </c>
       <c r="W15" t="n">
-        <v>1522.653492512987</v>
+        <v>1522.653492512988</v>
       </c>
       <c r="X15" t="n">
-        <v>1314.801992307454</v>
+        <v>1314.801992307455</v>
       </c>
       <c r="Y15" t="n">
         <v>1107.041693542501</v>
@@ -5436,13 +5436,13 @@
         <v>51.47062640842712</v>
       </c>
       <c r="J16" t="n">
-        <v>67.53625427207784</v>
+        <v>67.53625427207785</v>
       </c>
       <c r="K16" t="n">
-        <v>223.7738527315135</v>
+        <v>223.7738527315136</v>
       </c>
       <c r="L16" t="n">
-        <v>479.230622640079</v>
+        <v>479.2306226400791</v>
       </c>
       <c r="M16" t="n">
         <v>758.9630919210501</v>
@@ -5463,22 +5463,22 @@
         <v>1504.812354733476</v>
       </c>
       <c r="S16" t="n">
-        <v>1333.480154381483</v>
+        <v>1305.818606389895</v>
       </c>
       <c r="T16" t="n">
-        <v>1333.480154381483</v>
+        <v>1082.260287172206</v>
       </c>
       <c r="U16" t="n">
-        <v>1044.354414692822</v>
+        <v>793.1345474835446</v>
       </c>
       <c r="V16" t="n">
-        <v>789.6699264869352</v>
+        <v>538.4500592776577</v>
       </c>
       <c r="W16" t="n">
-        <v>500.2527564499746</v>
+        <v>279.4601773064445</v>
       </c>
       <c r="X16" t="n">
-        <v>272.2632055519572</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="Y16" t="n">
         <v>51.47062640842712</v>
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1929.786724896059</v>
+        <v>1272.743263739067</v>
       </c>
       <c r="C17" t="n">
-        <v>1929.786724896059</v>
+        <v>903.7807467986554</v>
       </c>
       <c r="D17" t="n">
-        <v>1571.521026289309</v>
+        <v>545.515048191905</v>
       </c>
       <c r="E17" t="n">
-        <v>1185.732773691064</v>
+        <v>545.515048191905</v>
       </c>
       <c r="F17" t="n">
-        <v>774.746868901457</v>
+        <v>545.515048191905</v>
       </c>
       <c r="G17" t="n">
-        <v>358.739583454931</v>
+        <v>129.507762745379</v>
       </c>
       <c r="H17" t="n">
-        <v>51.58210113439355</v>
+        <v>129.507762745379</v>
       </c>
       <c r="I17" t="n">
         <v>51.47062640842712</v>
       </c>
       <c r="J17" t="n">
-        <v>329.9913548027439</v>
+        <v>256.1971416110058</v>
       </c>
       <c r="K17" t="n">
-        <v>547.2625734173959</v>
+        <v>473.4683602256578</v>
       </c>
       <c r="L17" t="n">
-        <v>853.7084944021823</v>
+        <v>779.9142812104442</v>
       </c>
       <c r="M17" t="n">
-        <v>1226.358064749472</v>
+        <v>1152.563851557734</v>
       </c>
       <c r="N17" t="n">
-        <v>1609.651303116945</v>
+        <v>1535.857089925207</v>
       </c>
       <c r="O17" t="n">
-        <v>1958.248977943291</v>
+        <v>1884.454764751553</v>
       </c>
       <c r="P17" t="n">
-        <v>2221.268027456376</v>
+        <v>2147.473814264638</v>
       </c>
       <c r="Q17" t="n">
         <v>2507.009260908516</v>
@@ -5545,22 +5545,22 @@
         <v>2573.531320421356</v>
       </c>
       <c r="T17" t="n">
-        <v>2573.531320421356</v>
+        <v>2363.461331316938</v>
       </c>
       <c r="U17" t="n">
-        <v>2319.926056871871</v>
+        <v>2363.461331316938</v>
       </c>
       <c r="V17" t="n">
-        <v>2319.926056871871</v>
+        <v>2032.398443973368</v>
       </c>
       <c r="W17" t="n">
-        <v>2319.926056871871</v>
+        <v>1679.629788703254</v>
       </c>
       <c r="X17" t="n">
-        <v>2319.926056871871</v>
+        <v>1679.629788703254</v>
       </c>
       <c r="Y17" t="n">
-        <v>1929.786724896059</v>
+        <v>1659.343103803189</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>938.8263565224329</v>
+        <v>938.8263565224328</v>
       </c>
       <c r="C18" t="n">
-        <v>764.3733272413059</v>
+        <v>764.3733272413058</v>
       </c>
       <c r="D18" t="n">
         <v>615.4389175800545</v>
       </c>
       <c r="E18" t="n">
-        <v>456.201462574599</v>
+        <v>456.2014625745991</v>
       </c>
       <c r="F18" t="n">
         <v>309.666904601484</v>
       </c>
       <c r="G18" t="n">
-        <v>172.8036234571332</v>
+        <v>172.8036234571333</v>
       </c>
       <c r="H18" t="n">
-        <v>77.47103387006473</v>
+        <v>77.47103387006489</v>
       </c>
       <c r="I18" t="n">
         <v>51.47062640842712</v>
@@ -5612,10 +5612,10 @@
         <v>1868.253242523802</v>
       </c>
       <c r="P18" t="n">
-        <v>2256.002469723809</v>
+        <v>2400.419047428435</v>
       </c>
       <c r="Q18" t="n">
-        <v>2559.04344776687</v>
+        <v>2573.531320421356</v>
       </c>
       <c r="R18" t="n">
         <v>2573.531320421356</v>
@@ -5633,7 +5633,7 @@
         <v>1776.890849241189</v>
       </c>
       <c r="W18" t="n">
-        <v>1522.653492512988</v>
+        <v>1522.653492512987</v>
       </c>
       <c r="X18" t="n">
         <v>1314.801992307455</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>833.448661383177</v>
+        <v>219.5927979626309</v>
       </c>
       <c r="C19" t="n">
-        <v>664.5124784552701</v>
+        <v>219.5927979626309</v>
       </c>
       <c r="D19" t="n">
-        <v>514.3958390429343</v>
+        <v>219.5927979626309</v>
       </c>
       <c r="E19" t="n">
-        <v>366.4827454605412</v>
+        <v>219.5927979626309</v>
       </c>
       <c r="F19" t="n">
         <v>219.5927979626309</v>
@@ -5676,10 +5676,10 @@
         <v>67.53625427207785</v>
       </c>
       <c r="K19" t="n">
-        <v>223.7738527315135</v>
+        <v>223.7738527315136</v>
       </c>
       <c r="L19" t="n">
-        <v>479.230622640079</v>
+        <v>479.2306226400791</v>
       </c>
       <c r="M19" t="n">
         <v>758.9630919210501</v>
@@ -5697,28 +5697,28 @@
         <v>1504.812354733476</v>
       </c>
       <c r="R19" t="n">
-        <v>1504.812354733476</v>
+        <v>1396.127074232353</v>
       </c>
       <c r="S19" t="n">
-        <v>1504.812354733476</v>
+        <v>1396.127074232353</v>
       </c>
       <c r="T19" t="n">
-        <v>1504.812354733476</v>
+        <v>1396.127074232353</v>
       </c>
       <c r="U19" t="n">
-        <v>1504.812354733476</v>
+        <v>1107.001334543691</v>
       </c>
       <c r="V19" t="n">
-        <v>1304.514296250377</v>
+        <v>852.3168463378046</v>
       </c>
       <c r="W19" t="n">
-        <v>1015.097126213417</v>
+        <v>562.899676300844</v>
       </c>
       <c r="X19" t="n">
-        <v>1015.097126213417</v>
+        <v>334.9101254028267</v>
       </c>
       <c r="Y19" t="n">
-        <v>1015.097126213417</v>
+        <v>219.5927979626309</v>
       </c>
     </row>
     <row r="20">
@@ -5728,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>938.9645071717548</v>
+        <v>1300.265817730561</v>
       </c>
       <c r="C20" t="n">
-        <v>570.0019902313431</v>
+        <v>931.3033007901493</v>
       </c>
       <c r="D20" t="n">
-        <v>570.0019902313431</v>
+        <v>931.3033007901493</v>
       </c>
       <c r="E20" t="n">
-        <v>467.4779118549531</v>
+        <v>545.515048191905</v>
       </c>
       <c r="F20" t="n">
-        <v>467.4779118549531</v>
+        <v>545.515048191905</v>
       </c>
       <c r="G20" t="n">
-        <v>51.47062640842712</v>
+        <v>129.507762745379</v>
       </c>
       <c r="H20" t="n">
-        <v>51.47062640842712</v>
+        <v>129.507762745379</v>
       </c>
       <c r="I20" t="n">
         <v>51.47062640842712</v>
       </c>
       <c r="J20" t="n">
-        <v>256.1971416110058</v>
+        <v>162.5857057823909</v>
       </c>
       <c r="K20" t="n">
-        <v>473.4683602256578</v>
+        <v>379.8569243970429</v>
       </c>
       <c r="L20" t="n">
-        <v>779.9142812104442</v>
+        <v>686.3028453818293</v>
       </c>
       <c r="M20" t="n">
-        <v>1152.563851557734</v>
+        <v>1058.952415729119</v>
       </c>
       <c r="N20" t="n">
-        <v>1535.857089925207</v>
+        <v>1442.245654096592</v>
       </c>
       <c r="O20" t="n">
-        <v>1884.454764751552</v>
+        <v>1790.843328922938</v>
       </c>
       <c r="P20" t="n">
-        <v>2147.473814264637</v>
+        <v>2357.665655017943</v>
       </c>
       <c r="Q20" t="n">
         <v>2507.009260908516</v>
@@ -5779,25 +5779,25 @@
         <v>2573.531320421356</v>
       </c>
       <c r="S20" t="n">
-        <v>2441.938092742882</v>
+        <v>2450.470748031574</v>
       </c>
       <c r="T20" t="n">
-        <v>2441.938092742882</v>
+        <v>2450.470748031574</v>
       </c>
       <c r="U20" t="n">
-        <v>2441.938092742882</v>
+        <v>2450.470748031574</v>
       </c>
       <c r="V20" t="n">
-        <v>2441.938092742882</v>
+        <v>2450.470748031574</v>
       </c>
       <c r="W20" t="n">
-        <v>2089.169437472768</v>
+        <v>2450.470748031574</v>
       </c>
       <c r="X20" t="n">
-        <v>1715.703679211688</v>
+        <v>2077.004989770494</v>
       </c>
       <c r="Y20" t="n">
-        <v>1325.564347235877</v>
+        <v>1686.865657794683</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>938.8263565224324</v>
+        <v>938.8263565224328</v>
       </c>
       <c r="C21" t="n">
-        <v>764.3733272413054</v>
+        <v>764.3733272413058</v>
       </c>
       <c r="D21" t="n">
-        <v>615.4389175800541</v>
+        <v>615.4389175800545</v>
       </c>
       <c r="E21" t="n">
-        <v>456.2014625745985</v>
+        <v>456.2014625745991</v>
       </c>
       <c r="F21" t="n">
-        <v>309.6669046014836</v>
+        <v>309.666904601484</v>
       </c>
       <c r="G21" t="n">
-        <v>172.8036234571332</v>
+        <v>172.8036234571333</v>
       </c>
       <c r="H21" t="n">
-        <v>77.47103387006473</v>
+        <v>77.47103387006489</v>
       </c>
       <c r="I21" t="n">
         <v>51.47062640842712</v>
@@ -5834,37 +5834,37 @@
         <v>223.6622844990725</v>
       </c>
       <c r="K21" t="n">
-        <v>644.5860975745757</v>
+        <v>514.6573925244356</v>
       </c>
       <c r="L21" t="n">
-        <v>904.8425639158711</v>
+        <v>774.9138588657311</v>
       </c>
       <c r="M21" t="n">
-        <v>1227.906452803957</v>
+        <v>1097.977747753817</v>
       </c>
       <c r="N21" t="n">
-        <v>1573.929526440055</v>
+        <v>1444.000821389915</v>
       </c>
       <c r="O21" t="n">
-        <v>1868.253242523802</v>
+        <v>1738.324537473662</v>
       </c>
       <c r="P21" t="n">
-        <v>2256.002469723809</v>
+        <v>2270.490342378295</v>
       </c>
       <c r="Q21" t="n">
-        <v>2559.04344776687</v>
+        <v>2573.531320421356</v>
       </c>
       <c r="R21" t="n">
         <v>2573.531320421356</v>
       </c>
       <c r="S21" t="n">
-        <v>2434.802791645261</v>
+        <v>2434.802791645262</v>
       </c>
       <c r="T21" t="n">
         <v>2240.143710981738</v>
       </c>
       <c r="U21" t="n">
-        <v>2012.042957472931</v>
+        <v>2012.042957472932</v>
       </c>
       <c r="V21" t="n">
         <v>1776.890849241189</v>
@@ -5873,7 +5873,7 @@
         <v>1522.653492512987</v>
       </c>
       <c r="X21" t="n">
-        <v>1314.801992307454</v>
+        <v>1314.801992307455</v>
       </c>
       <c r="Y21" t="n">
         <v>1107.041693542501</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>248.1163139462949</v>
+        <v>448.0266375842779</v>
       </c>
       <c r="C22" t="n">
-        <v>79.18013101838801</v>
+        <v>367.505891545024</v>
       </c>
       <c r="D22" t="n">
-        <v>79.18013101838801</v>
+        <v>367.505891545024</v>
       </c>
       <c r="E22" t="n">
-        <v>79.18013101838801</v>
+        <v>219.5927979626309</v>
       </c>
       <c r="F22" t="n">
-        <v>79.18013101838801</v>
+        <v>219.5927979626309</v>
       </c>
       <c r="G22" t="n">
-        <v>79.18013101838801</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="H22" t="n">
         <v>51.47062640842712</v>
@@ -5910,13 +5910,13 @@
         <v>51.47062640842712</v>
       </c>
       <c r="J22" t="n">
-        <v>67.53625427207784</v>
+        <v>67.53625427207785</v>
       </c>
       <c r="K22" t="n">
-        <v>223.7738527315135</v>
+        <v>223.7738527315136</v>
       </c>
       <c r="L22" t="n">
-        <v>479.230622640079</v>
+        <v>479.2306226400791</v>
       </c>
       <c r="M22" t="n">
         <v>758.9630919210501</v>
@@ -5934,28 +5934,28 @@
         <v>1504.812354733476</v>
       </c>
       <c r="R22" t="n">
-        <v>1396.127074232353</v>
+        <v>1504.812354733476</v>
       </c>
       <c r="S22" t="n">
-        <v>1197.133325888772</v>
+        <v>1504.812354733476</v>
       </c>
       <c r="T22" t="n">
-        <v>973.5750066710827</v>
+        <v>1281.254035515787</v>
       </c>
       <c r="U22" t="n">
-        <v>684.4492669824215</v>
+        <v>992.1282958271254</v>
       </c>
       <c r="V22" t="n">
-        <v>429.7647787765346</v>
+        <v>737.4438076212385</v>
       </c>
       <c r="W22" t="n">
-        <v>429.7647787765346</v>
+        <v>448.0266375842779</v>
       </c>
       <c r="X22" t="n">
-        <v>429.7647787765346</v>
+        <v>448.0266375842779</v>
       </c>
       <c r="Y22" t="n">
-        <v>429.7647787765346</v>
+        <v>448.0266375842779</v>
       </c>
     </row>
     <row r="23">
@@ -5977,10 +5977,10 @@
         <v>1309.218609511707</v>
       </c>
       <c r="F23" t="n">
-        <v>898.232704722099</v>
+        <v>898.2327047220992</v>
       </c>
       <c r="G23" t="n">
-        <v>482.225419275573</v>
+        <v>482.2254192755736</v>
       </c>
       <c r="H23" t="n">
         <v>175.0679369550356</v>
@@ -5989,13 +5989,13 @@
         <v>97.03080061808376</v>
       </c>
       <c r="J23" t="n">
-        <v>375.5515290124006</v>
+        <v>226.2525373777848</v>
       </c>
       <c r="K23" t="n">
-        <v>913.7267060725056</v>
+        <v>764.42771443789</v>
       </c>
       <c r="L23" t="n">
-        <v>1633.657229462238</v>
+        <v>1484.358237827622</v>
       </c>
       <c r="M23" t="n">
         <v>2302.026206332816</v>
@@ -6022,10 +6022,10 @@
         <v>4509.876814121297</v>
       </c>
       <c r="U23" t="n">
-        <v>4256.271550571811</v>
+        <v>4256.271550571812</v>
       </c>
       <c r="V23" t="n">
-        <v>3925.20866322824</v>
+        <v>3925.208663228241</v>
       </c>
       <c r="W23" t="n">
         <v>3572.440007958126</v>
@@ -6074,22 +6074,22 @@
         <v>690.1462717842323</v>
       </c>
       <c r="L24" t="n">
-        <v>1121.26430137444</v>
+        <v>950.4027381255278</v>
       </c>
       <c r="M24" t="n">
-        <v>1444.328190262526</v>
+        <v>1273.466627013614</v>
       </c>
       <c r="N24" t="n">
-        <v>1790.351263898624</v>
+        <v>1619.489700649711</v>
       </c>
       <c r="O24" t="n">
-        <v>2084.674979982371</v>
+        <v>1913.813416733459</v>
       </c>
       <c r="P24" t="n">
-        <v>2301.562643933466</v>
+        <v>2316.050516587951</v>
       </c>
       <c r="Q24" t="n">
-        <v>2604.603621976527</v>
+        <v>2619.091494631013</v>
       </c>
       <c r="R24" t="n">
         <v>2619.091494631013</v>
@@ -6150,10 +6150,10 @@
         <v>113.0964284817345</v>
       </c>
       <c r="K25" t="n">
-        <v>269.3340269411701</v>
+        <v>269.3340269411702</v>
       </c>
       <c r="L25" t="n">
-        <v>524.7907968497357</v>
+        <v>524.7907968497358</v>
       </c>
       <c r="M25" t="n">
         <v>804.5232661307068</v>
@@ -6174,7 +6174,7 @@
         <v>1550.372528943132</v>
       </c>
       <c r="S25" t="n">
-        <v>1381.806068665299</v>
+        <v>1351.378780599552</v>
       </c>
       <c r="T25" t="n">
         <v>1158.24774944761</v>
@@ -6229,25 +6229,25 @@
         <v>375.5515290124006</v>
       </c>
       <c r="K26" t="n">
-        <v>913.7267060725056</v>
+        <v>913.7267060725057</v>
       </c>
       <c r="L26" t="n">
         <v>1633.657229462238</v>
       </c>
       <c r="M26" t="n">
-        <v>2302.026206332816</v>
+        <v>2451.325197967432</v>
       </c>
       <c r="N26" t="n">
-        <v>3118.292899868154</v>
+        <v>3267.59189150277</v>
       </c>
       <c r="O26" t="n">
-        <v>3843.882754144617</v>
+        <v>3993.181745779233</v>
       </c>
       <c r="P26" t="n">
-        <v>4425.48252474747</v>
+        <v>4574.781516382086</v>
       </c>
       <c r="Q26" t="n">
-        <v>4785.017971391349</v>
+        <v>4850.077227065601</v>
       </c>
       <c r="R26" t="n">
         <v>4851.540030904188</v>
@@ -6311,22 +6311,22 @@
         <v>690.1462717842323</v>
       </c>
       <c r="L27" t="n">
-        <v>1121.26430137444</v>
+        <v>950.4027381255278</v>
       </c>
       <c r="M27" t="n">
-        <v>1444.328190262526</v>
+        <v>1273.466627013614</v>
       </c>
       <c r="N27" t="n">
-        <v>1790.351263898624</v>
+        <v>1619.489700649711</v>
       </c>
       <c r="O27" t="n">
-        <v>2084.674979982371</v>
+        <v>1913.813416733459</v>
       </c>
       <c r="P27" t="n">
-        <v>2301.562643933466</v>
+        <v>2316.050516587951</v>
       </c>
       <c r="Q27" t="n">
-        <v>2604.603621976527</v>
+        <v>2619.091494631013</v>
       </c>
       <c r="R27" t="n">
         <v>2619.091494631013</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>674.3187013297721</v>
+        <v>254.5323738426612</v>
       </c>
       <c r="C28" t="n">
-        <v>674.3187013297721</v>
+        <v>254.5323738426612</v>
       </c>
       <c r="D28" t="n">
-        <v>524.2020619174364</v>
+        <v>254.5323738426612</v>
       </c>
       <c r="E28" t="n">
-        <v>524.2020619174364</v>
+        <v>254.5323738426612</v>
       </c>
       <c r="F28" t="n">
-        <v>524.2020619174364</v>
+        <v>107.6424263447508</v>
       </c>
       <c r="G28" t="n">
-        <v>356.0798903632326</v>
+        <v>107.6424263447508</v>
       </c>
       <c r="H28" t="n">
-        <v>206.1344348493959</v>
+        <v>97.03080061808376</v>
       </c>
       <c r="I28" t="n">
         <v>97.03080061808376</v>
@@ -6387,10 +6387,10 @@
         <v>113.0964284817345</v>
       </c>
       <c r="K28" t="n">
-        <v>269.3340269411701</v>
+        <v>269.3340269411702</v>
       </c>
       <c r="L28" t="n">
-        <v>524.7907968497357</v>
+        <v>524.7907968497358</v>
       </c>
       <c r="M28" t="n">
         <v>804.5232661307068</v>
@@ -6411,25 +6411,25 @@
         <v>1441.687248442009</v>
       </c>
       <c r="S28" t="n">
-        <v>1441.687248442009</v>
+        <v>1242.693500098429</v>
       </c>
       <c r="T28" t="n">
-        <v>1218.12892922432</v>
+        <v>1019.135180880739</v>
       </c>
       <c r="U28" t="n">
-        <v>929.003189535659</v>
+        <v>730.0094411920782</v>
       </c>
       <c r="V28" t="n">
-        <v>674.3187013297721</v>
+        <v>475.3249529861913</v>
       </c>
       <c r="W28" t="n">
-        <v>674.3187013297721</v>
+        <v>475.3249529861913</v>
       </c>
       <c r="X28" t="n">
-        <v>674.3187013297721</v>
+        <v>475.3249529861913</v>
       </c>
       <c r="Y28" t="n">
-        <v>674.3187013297721</v>
+        <v>254.5323738426612</v>
       </c>
     </row>
     <row r="29">
@@ -6439,55 +6439,55 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2422.235077657112</v>
+        <v>2422.235077657111</v>
       </c>
       <c r="C29" t="n">
-        <v>2053.272560716701</v>
+        <v>2053.272560716699</v>
       </c>
       <c r="D29" t="n">
-        <v>1695.00686210995</v>
+        <v>1695.006862109949</v>
       </c>
       <c r="E29" t="n">
-        <v>1309.218609511706</v>
+        <v>1309.218609511705</v>
       </c>
       <c r="F29" t="n">
-        <v>898.2327047220986</v>
+        <v>898.2327047220983</v>
       </c>
       <c r="G29" t="n">
-        <v>482.225419275573</v>
+        <v>482.2254192755727</v>
       </c>
       <c r="H29" t="n">
         <v>175.0679369550356</v>
       </c>
       <c r="I29" t="n">
-        <v>97.03080061808375</v>
+        <v>97.03080061808376</v>
       </c>
       <c r="J29" t="n">
-        <v>375.5515290124005</v>
+        <v>375.5515290124006</v>
       </c>
       <c r="K29" t="n">
-        <v>913.7267060725055</v>
+        <v>829.4869701121422</v>
       </c>
       <c r="L29" t="n">
-        <v>1633.657229462238</v>
+        <v>1549.417493501875</v>
       </c>
       <c r="M29" t="n">
-        <v>2302.026206332815</v>
+        <v>2367.085462007069</v>
       </c>
       <c r="N29" t="n">
-        <v>3118.292899868153</v>
+        <v>3183.352155542406</v>
       </c>
       <c r="O29" t="n">
-        <v>3843.882754144616</v>
+        <v>3908.942009818869</v>
       </c>
       <c r="P29" t="n">
-        <v>4425.482524747469</v>
+        <v>4490.541780421722</v>
       </c>
       <c r="Q29" t="n">
-        <v>4785.017971391348</v>
+        <v>4850.077227065601</v>
       </c>
       <c r="R29" t="n">
-        <v>4851.540030904187</v>
+        <v>4851.540030904188</v>
       </c>
       <c r="S29" t="n">
         <v>4719.946803225714</v>
@@ -6496,19 +6496,19 @@
         <v>4509.876814121296</v>
       </c>
       <c r="U29" t="n">
-        <v>4256.271550571811</v>
+        <v>4256.27155057181</v>
       </c>
       <c r="V29" t="n">
-        <v>3925.20866322824</v>
+        <v>3925.208663228239</v>
       </c>
       <c r="W29" t="n">
-        <v>3572.440007958126</v>
+        <v>3572.440007958125</v>
       </c>
       <c r="X29" t="n">
-        <v>3198.974249697046</v>
+        <v>3198.974249697045</v>
       </c>
       <c r="Y29" t="n">
-        <v>2808.834917721234</v>
+        <v>2808.834917721233</v>
       </c>
     </row>
     <row r="30">
@@ -6539,7 +6539,7 @@
         <v>123.0312080797215</v>
       </c>
       <c r="I30" t="n">
-        <v>97.03080061808375</v>
+        <v>97.03080061808376</v>
       </c>
       <c r="J30" t="n">
         <v>269.2224587087292</v>
@@ -6560,10 +6560,10 @@
         <v>1913.813416733459</v>
       </c>
       <c r="P30" t="n">
-        <v>2301.562643933466</v>
+        <v>2316.050516587951</v>
       </c>
       <c r="Q30" t="n">
-        <v>2604.603621976527</v>
+        <v>2619.091494631013</v>
       </c>
       <c r="R30" t="n">
         <v>2619.091494631013</v>
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.03080061808375</v>
+        <v>247.1474400304195</v>
       </c>
       <c r="C31" t="n">
-        <v>97.03080061808375</v>
+        <v>247.1474400304195</v>
       </c>
       <c r="D31" t="n">
-        <v>97.03080061808375</v>
+        <v>97.03080061808376</v>
       </c>
       <c r="E31" t="n">
-        <v>97.03080061808375</v>
+        <v>97.03080061808376</v>
       </c>
       <c r="F31" t="n">
-        <v>97.03080061808375</v>
+        <v>97.03080061808376</v>
       </c>
       <c r="G31" t="n">
-        <v>97.03080061808375</v>
+        <v>97.03080061808376</v>
       </c>
       <c r="H31" t="n">
-        <v>97.03080061808375</v>
+        <v>97.03080061808376</v>
       </c>
       <c r="I31" t="n">
-        <v>97.03080061808375</v>
+        <v>97.03080061808376</v>
       </c>
       <c r="J31" t="n">
         <v>113.0964284817345</v>
       </c>
       <c r="K31" t="n">
-        <v>269.3340269411701</v>
+        <v>269.3340269411702</v>
       </c>
       <c r="L31" t="n">
-        <v>524.7907968497357</v>
+        <v>524.7907968497358</v>
       </c>
       <c r="M31" t="n">
         <v>804.5232661307068</v>
@@ -6645,28 +6645,28 @@
         <v>1550.372528943132</v>
       </c>
       <c r="R31" t="n">
-        <v>1550.372528943132</v>
+        <v>1441.687248442009</v>
       </c>
       <c r="S31" t="n">
-        <v>1550.372528943132</v>
+        <v>1441.687248442009</v>
       </c>
       <c r="T31" t="n">
-        <v>1326.814209725443</v>
+        <v>1218.12892922432</v>
       </c>
       <c r="U31" t="n">
-        <v>1089.914588902479</v>
+        <v>972.8975631035067</v>
       </c>
       <c r="V31" t="n">
-        <v>835.2301006965918</v>
+        <v>718.2130748976199</v>
       </c>
       <c r="W31" t="n">
-        <v>545.8129306596312</v>
+        <v>428.7959048606592</v>
       </c>
       <c r="X31" t="n">
-        <v>317.8233797616139</v>
+        <v>428.7959048606592</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.03080061808375</v>
+        <v>428.7959048606592</v>
       </c>
     </row>
     <row r="32">
@@ -6700,7 +6700,7 @@
         <v>97.03080061808376</v>
       </c>
       <c r="J32" t="n">
-        <v>226.252537377785</v>
+        <v>226.2525373777848</v>
       </c>
       <c r="K32" t="n">
         <v>764.42771443789</v>
@@ -6791,16 +6791,16 @@
         <v>1273.466627013614</v>
       </c>
       <c r="N33" t="n">
-        <v>1804.839136553109</v>
+        <v>1619.489700649711</v>
       </c>
       <c r="O33" t="n">
-        <v>2099.162852636856</v>
+        <v>1913.813416733459</v>
       </c>
       <c r="P33" t="n">
-        <v>2316.050516587951</v>
+        <v>2301.562643933466</v>
       </c>
       <c r="Q33" t="n">
-        <v>2619.091494631013</v>
+        <v>2604.603621976527</v>
       </c>
       <c r="R33" t="n">
         <v>2619.091494631013</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>820.822886173705</v>
+        <v>97.03080061808376</v>
       </c>
       <c r="C34" t="n">
-        <v>651.8867032457981</v>
+        <v>97.03080061808376</v>
       </c>
       <c r="D34" t="n">
-        <v>501.7700638334624</v>
+        <v>97.03080061808376</v>
       </c>
       <c r="E34" t="n">
-        <v>353.8569702510692</v>
+        <v>97.03080061808376</v>
       </c>
       <c r="F34" t="n">
-        <v>206.9670227531589</v>
+        <v>97.03080061808376</v>
       </c>
       <c r="G34" t="n">
-        <v>206.9670227531589</v>
+        <v>97.03080061808376</v>
       </c>
       <c r="H34" t="n">
-        <v>206.9670227531589</v>
+        <v>97.03080061808376</v>
       </c>
       <c r="I34" t="n">
         <v>97.03080061808376</v>
@@ -6861,10 +6861,10 @@
         <v>113.0964284817345</v>
       </c>
       <c r="K34" t="n">
-        <v>269.3340269411701</v>
+        <v>269.3340269411702</v>
       </c>
       <c r="L34" t="n">
-        <v>524.7907968497357</v>
+        <v>524.7907968497358</v>
       </c>
       <c r="M34" t="n">
         <v>804.5232661307068</v>
@@ -6885,25 +6885,25 @@
         <v>1550.372528943132</v>
       </c>
       <c r="S34" t="n">
-        <v>1550.372528943132</v>
+        <v>1381.806068665299</v>
       </c>
       <c r="T34" t="n">
-        <v>1550.372528943132</v>
+        <v>1158.24774944761</v>
       </c>
       <c r="U34" t="n">
-        <v>1550.372528943132</v>
+        <v>869.1220097589486</v>
       </c>
       <c r="V34" t="n">
-        <v>1550.372528943132</v>
+        <v>614.4375215530617</v>
       </c>
       <c r="W34" t="n">
-        <v>1451.253481045492</v>
+        <v>325.0203515161011</v>
       </c>
       <c r="X34" t="n">
-        <v>1223.263930147475</v>
+        <v>97.03080061808376</v>
       </c>
       <c r="Y34" t="n">
-        <v>1002.471351003945</v>
+        <v>97.03080061808376</v>
       </c>
     </row>
     <row r="35">
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1633.214586183217</v>
+        <v>1350.80960707411</v>
       </c>
       <c r="C35" t="n">
-        <v>1264.252069242805</v>
+        <v>981.8470901336984</v>
       </c>
       <c r="D35" t="n">
-        <v>1264.252069242805</v>
+        <v>981.8470901336984</v>
       </c>
       <c r="E35" t="n">
-        <v>878.4638166445607</v>
+        <v>956.5009529815125</v>
       </c>
       <c r="F35" t="n">
-        <v>467.4779118549531</v>
+        <v>545.515048191905</v>
       </c>
       <c r="G35" t="n">
-        <v>51.47062640842712</v>
+        <v>129.507762745379</v>
       </c>
       <c r="H35" t="n">
-        <v>51.47062640842712</v>
+        <v>129.507762745379</v>
       </c>
       <c r="I35" t="n">
         <v>51.47062640842712</v>
       </c>
       <c r="J35" t="n">
-        <v>329.9913548027439</v>
+        <v>162.5857057823909</v>
       </c>
       <c r="K35" t="n">
-        <v>547.2625734173959</v>
+        <v>379.8569243970429</v>
       </c>
       <c r="L35" t="n">
-        <v>853.7084944021823</v>
+        <v>686.3028453818293</v>
       </c>
       <c r="M35" t="n">
-        <v>1226.358064749472</v>
+        <v>1323.251847186115</v>
       </c>
       <c r="N35" t="n">
-        <v>1609.651303116945</v>
+        <v>1706.545085553588</v>
       </c>
       <c r="O35" t="n">
-        <v>1958.248977943291</v>
+        <v>2055.142760379934</v>
       </c>
       <c r="P35" t="n">
-        <v>2221.268027456376</v>
+        <v>2318.161809893019</v>
       </c>
       <c r="Q35" t="n">
-        <v>2572.068516582769</v>
+        <v>2507.009260908516</v>
       </c>
       <c r="R35" t="n">
         <v>2573.531320421356</v>
@@ -6970,19 +6970,19 @@
         <v>2441.938092742882</v>
       </c>
       <c r="U35" t="n">
-        <v>2409.95375822315</v>
+        <v>2441.938092742882</v>
       </c>
       <c r="V35" t="n">
-        <v>2409.95375822315</v>
+        <v>2110.875205399312</v>
       </c>
       <c r="W35" t="n">
-        <v>2409.95375822315</v>
+        <v>2110.875205399312</v>
       </c>
       <c r="X35" t="n">
-        <v>2409.95375822315</v>
+        <v>1737.409447138232</v>
       </c>
       <c r="Y35" t="n">
-        <v>2019.814426247338</v>
+        <v>1737.409447138232</v>
       </c>
     </row>
     <row r="36">
@@ -7034,10 +7034,10 @@
         <v>1868.253242523802</v>
       </c>
       <c r="P36" t="n">
-        <v>2270.490342378295</v>
+        <v>2256.002469723809</v>
       </c>
       <c r="Q36" t="n">
-        <v>2573.531320421356</v>
+        <v>2559.04344776687</v>
       </c>
       <c r="R36" t="n">
         <v>2573.531320421356</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>51.47062640842712</v>
+        <v>538.6456203028735</v>
       </c>
       <c r="C37" t="n">
-        <v>51.47062640842712</v>
+        <v>369.7094373749666</v>
       </c>
       <c r="D37" t="n">
-        <v>51.47062640842712</v>
+        <v>219.5927979626308</v>
       </c>
       <c r="E37" t="n">
-        <v>51.47062640842712</v>
+        <v>219.5927979626308</v>
       </c>
       <c r="F37" t="n">
-        <v>51.47062640842712</v>
+        <v>219.5927979626308</v>
       </c>
       <c r="G37" t="n">
         <v>51.47062640842712</v>
@@ -7095,13 +7095,13 @@
         <v>51.47062640842712</v>
       </c>
       <c r="J37" t="n">
-        <v>67.53625427207784</v>
+        <v>67.53625427207785</v>
       </c>
       <c r="K37" t="n">
-        <v>223.7738527315135</v>
+        <v>223.7738527315136</v>
       </c>
       <c r="L37" t="n">
-        <v>479.230622640079</v>
+        <v>479.2306226400791</v>
       </c>
       <c r="M37" t="n">
         <v>758.9630919210501</v>
@@ -7122,25 +7122,25 @@
         <v>1504.812354733476</v>
       </c>
       <c r="S37" t="n">
-        <v>1305.818606389895</v>
+        <v>1458.201954863322</v>
       </c>
       <c r="T37" t="n">
-        <v>1082.260287172206</v>
+        <v>1458.201954863322</v>
       </c>
       <c r="U37" t="n">
-        <v>793.1345474835446</v>
+        <v>1169.076215174661</v>
       </c>
       <c r="V37" t="n">
-        <v>538.4500592776577</v>
+        <v>1169.076215174661</v>
       </c>
       <c r="W37" t="n">
-        <v>249.0328892406971</v>
+        <v>1169.076215174661</v>
       </c>
       <c r="X37" t="n">
-        <v>51.47062640842712</v>
+        <v>941.0866642766433</v>
       </c>
       <c r="Y37" t="n">
-        <v>51.47062640842712</v>
+        <v>720.2940851331132</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1174.5708027637</v>
+        <v>1342.289205579757</v>
       </c>
       <c r="C38" t="n">
-        <v>805.6082858232883</v>
+        <v>1342.289205579757</v>
       </c>
       <c r="D38" t="n">
-        <v>447.3425872165378</v>
+        <v>1342.289205579757</v>
       </c>
       <c r="E38" t="n">
-        <v>61.55433461829352</v>
+        <v>956.5009529815125</v>
       </c>
       <c r="F38" t="n">
-        <v>51.47062640842712</v>
+        <v>545.515048191905</v>
       </c>
       <c r="G38" t="n">
-        <v>51.47062640842712</v>
+        <v>129.507762745379</v>
       </c>
       <c r="H38" t="n">
-        <v>51.47062640842712</v>
+        <v>129.507762745379</v>
       </c>
       <c r="I38" t="n">
         <v>51.47062640842712</v>
@@ -7177,22 +7177,22 @@
         <v>329.9913548027439</v>
       </c>
       <c r="K38" t="n">
-        <v>683.6602009789635</v>
+        <v>547.2625734173959</v>
       </c>
       <c r="L38" t="n">
-        <v>990.10612196375</v>
+        <v>853.7084944021823</v>
       </c>
       <c r="M38" t="n">
-        <v>1362.75569231104</v>
+        <v>1226.358064749472</v>
       </c>
       <c r="N38" t="n">
-        <v>1746.048930678513</v>
+        <v>1609.651303116945</v>
       </c>
       <c r="O38" t="n">
-        <v>2094.646605504858</v>
+        <v>1958.248977943291</v>
       </c>
       <c r="P38" t="n">
-        <v>2357.665655017943</v>
+        <v>2221.268027456376</v>
       </c>
       <c r="Q38" t="n">
         <v>2507.009260908516</v>
@@ -7201,25 +7201,25 @@
         <v>2573.531320421356</v>
       </c>
       <c r="S38" t="n">
-        <v>2441.938092742882</v>
+        <v>2573.531320421356</v>
       </c>
       <c r="T38" t="n">
-        <v>2231.868103638465</v>
+        <v>2573.531320421356</v>
       </c>
       <c r="U38" t="n">
-        <v>2231.868103638465</v>
+        <v>2492.49413588077</v>
       </c>
       <c r="V38" t="n">
-        <v>1900.805216294894</v>
+        <v>2492.49413588077</v>
       </c>
       <c r="W38" t="n">
-        <v>1548.03656102478</v>
+        <v>2492.49413588077</v>
       </c>
       <c r="X38" t="n">
-        <v>1174.5708027637</v>
+        <v>2119.02837761969</v>
       </c>
       <c r="Y38" t="n">
-        <v>1174.5708027637</v>
+        <v>1728.889045643878</v>
       </c>
     </row>
     <row r="39">
@@ -7235,16 +7235,16 @@
         <v>764.3733272413054</v>
       </c>
       <c r="D39" t="n">
-        <v>615.4389175800542</v>
+        <v>615.4389175800545</v>
       </c>
       <c r="E39" t="n">
-        <v>456.2014625745987</v>
+        <v>456.2014625745991</v>
       </c>
       <c r="F39" t="n">
-        <v>309.6669046014837</v>
+        <v>309.666904601484</v>
       </c>
       <c r="G39" t="n">
-        <v>172.8036234571329</v>
+        <v>172.8036234571333</v>
       </c>
       <c r="H39" t="n">
         <v>77.47103387006489</v>
@@ -7253,25 +7253,25 @@
         <v>51.47062640842712</v>
       </c>
       <c r="J39" t="n">
-        <v>98.83215951206776</v>
+        <v>223.6622844990725</v>
       </c>
       <c r="K39" t="n">
-        <v>257.9353879451181</v>
+        <v>644.5860975745757</v>
       </c>
       <c r="L39" t="n">
-        <v>518.1918542864134</v>
+        <v>904.8425639158711</v>
       </c>
       <c r="M39" t="n">
-        <v>841.2557431744997</v>
+        <v>1227.906452803957</v>
       </c>
       <c r="N39" t="n">
-        <v>1294.864177873381</v>
+        <v>1573.929526440055</v>
       </c>
       <c r="O39" t="n">
-        <v>1931.813179677666</v>
+        <v>1868.253242523802</v>
       </c>
       <c r="P39" t="n">
-        <v>2463.978984582299</v>
+        <v>2256.002469723809</v>
       </c>
       <c r="Q39" t="n">
         <v>2559.04344776687</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>516.3597981294089</v>
+        <v>219.5927979626308</v>
       </c>
       <c r="C40" t="n">
-        <v>349.5003594031559</v>
+        <v>219.5927979626308</v>
       </c>
       <c r="D40" t="n">
-        <v>199.3837199908202</v>
+        <v>219.5927979626308</v>
       </c>
       <c r="E40" t="n">
-        <v>51.47062640842712</v>
+        <v>219.5927979626308</v>
       </c>
       <c r="F40" t="n">
-        <v>51.47062640842712</v>
+        <v>219.5927979626308</v>
       </c>
       <c r="G40" t="n">
         <v>51.47062640842712</v>
@@ -7332,13 +7332,13 @@
         <v>51.47062640842712</v>
       </c>
       <c r="J40" t="n">
-        <v>67.53625427207784</v>
+        <v>67.53625427207785</v>
       </c>
       <c r="K40" t="n">
-        <v>223.7738527315135</v>
+        <v>223.7738527315136</v>
       </c>
       <c r="L40" t="n">
-        <v>479.230622640079</v>
+        <v>479.2306226400791</v>
       </c>
       <c r="M40" t="n">
         <v>758.9630919210501</v>
@@ -7356,28 +7356,28 @@
         <v>1504.812354733476</v>
       </c>
       <c r="R40" t="n">
-        <v>1504.812354733476</v>
+        <v>1396.127074232353</v>
       </c>
       <c r="S40" t="n">
-        <v>1504.812354733476</v>
+        <v>1197.133325888772</v>
       </c>
       <c r="T40" t="n">
-        <v>1281.254035515787</v>
+        <v>973.5750066710827</v>
       </c>
       <c r="U40" t="n">
-        <v>1281.254035515787</v>
+        <v>702.266837066535</v>
       </c>
       <c r="V40" t="n">
-        <v>1026.5695473099</v>
+        <v>447.5823488606482</v>
       </c>
       <c r="W40" t="n">
-        <v>737.152377272939</v>
+        <v>447.5823488606482</v>
       </c>
       <c r="X40" t="n">
-        <v>737.152377272939</v>
+        <v>219.5927979626308</v>
       </c>
       <c r="Y40" t="n">
-        <v>516.3597981294089</v>
+        <v>219.5927979626308</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1665.198920702949</v>
+        <v>1642.259111997555</v>
       </c>
       <c r="C41" t="n">
-        <v>1665.198920702949</v>
+        <v>1642.259111997555</v>
       </c>
       <c r="D41" t="n">
-        <v>1649.446687900294</v>
+        <v>1283.993413390805</v>
       </c>
       <c r="E41" t="n">
-        <v>1263.65843530205</v>
+        <v>898.2051607925607</v>
       </c>
       <c r="F41" t="n">
-        <v>852.6725305124423</v>
+        <v>487.2192560029532</v>
       </c>
       <c r="G41" t="n">
-        <v>436.6652450659164</v>
+        <v>129.507762745379</v>
       </c>
       <c r="H41" t="n">
         <v>129.507762745379</v>
@@ -7414,22 +7414,22 @@
         <v>329.9913548027439</v>
       </c>
       <c r="K41" t="n">
-        <v>683.6602009789635</v>
+        <v>547.2625734173959</v>
       </c>
       <c r="L41" t="n">
-        <v>990.10612196375</v>
+        <v>853.7084944021823</v>
       </c>
       <c r="M41" t="n">
-        <v>1362.75569231104</v>
+        <v>1226.358064749472</v>
       </c>
       <c r="N41" t="n">
-        <v>1746.048930678513</v>
+        <v>1609.651303116945</v>
       </c>
       <c r="O41" t="n">
-        <v>2094.646605504858</v>
+        <v>1958.248977943291</v>
       </c>
       <c r="P41" t="n">
-        <v>2357.665655017943</v>
+        <v>2221.268027456376</v>
       </c>
       <c r="Q41" t="n">
         <v>2507.009260908516</v>
@@ -7438,25 +7438,25 @@
         <v>2573.531320421356</v>
       </c>
       <c r="S41" t="n">
-        <v>2441.938092742882</v>
+        <v>2573.531320421356</v>
       </c>
       <c r="T41" t="n">
-        <v>2441.938092742882</v>
+        <v>2363.461331316938</v>
       </c>
       <c r="U41" t="n">
-        <v>2441.938092742882</v>
+        <v>2363.461331316938</v>
       </c>
       <c r="V41" t="n">
-        <v>2441.938092742882</v>
+        <v>2032.398443973367</v>
       </c>
       <c r="W41" t="n">
-        <v>2441.938092742882</v>
+        <v>2032.398443973367</v>
       </c>
       <c r="X41" t="n">
-        <v>2441.938092742882</v>
+        <v>2032.398443973367</v>
       </c>
       <c r="Y41" t="n">
-        <v>2051.798760767071</v>
+        <v>1642.259111997555</v>
       </c>
     </row>
     <row r="42">
@@ -7496,22 +7496,22 @@
         <v>644.5860975745757</v>
       </c>
       <c r="L42" t="n">
-        <v>1090.191999819269</v>
+        <v>1075.704127164783</v>
       </c>
       <c r="M42" t="n">
-        <v>1413.255888707355</v>
+        <v>1398.768016052869</v>
       </c>
       <c r="N42" t="n">
-        <v>1759.278962343453</v>
+        <v>1744.791089688967</v>
       </c>
       <c r="O42" t="n">
-        <v>2053.6026784272</v>
+        <v>2039.114805772714</v>
       </c>
       <c r="P42" t="n">
-        <v>2270.490342378295</v>
+        <v>2256.002469723809</v>
       </c>
       <c r="Q42" t="n">
-        <v>2573.531320421356</v>
+        <v>2559.04344776687</v>
       </c>
       <c r="R42" t="n">
         <v>2573.531320421356</v>
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>925.208167477885</v>
+        <v>582.4902800988683</v>
       </c>
       <c r="C43" t="n">
-        <v>756.2719845499781</v>
+        <v>582.4902800988683</v>
       </c>
       <c r="D43" t="n">
-        <v>606.1553451376424</v>
+        <v>432.3736406865326</v>
       </c>
       <c r="E43" t="n">
-        <v>458.2422515552493</v>
+        <v>284.4605471041394</v>
       </c>
       <c r="F43" t="n">
-        <v>311.3523040573389</v>
+        <v>137.5705996062291</v>
       </c>
       <c r="G43" t="n">
-        <v>311.3523040573389</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="H43" t="n">
-        <v>161.4068485435022</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="I43" t="n">
         <v>51.47062640842712</v>
       </c>
       <c r="J43" t="n">
-        <v>67.53625427207784</v>
+        <v>67.53625427207785</v>
       </c>
       <c r="K43" t="n">
-        <v>223.7738527315135</v>
+        <v>223.7738527315136</v>
       </c>
       <c r="L43" t="n">
-        <v>479.230622640079</v>
+        <v>479.2306226400791</v>
       </c>
       <c r="M43" t="n">
         <v>758.9630919210501</v>
@@ -7596,25 +7596,25 @@
         <v>1504.812354733476</v>
       </c>
       <c r="S43" t="n">
-        <v>1305.818606389895</v>
+        <v>1504.812354733476</v>
       </c>
       <c r="T43" t="n">
-        <v>1082.260287172206</v>
+        <v>1281.254035515787</v>
       </c>
       <c r="U43" t="n">
-        <v>1082.260287172206</v>
+        <v>992.1282958271254</v>
       </c>
       <c r="V43" t="n">
-        <v>1082.260287172206</v>
+        <v>992.1282958271254</v>
       </c>
       <c r="W43" t="n">
-        <v>1082.260287172206</v>
+        <v>992.1282958271254</v>
       </c>
       <c r="X43" t="n">
-        <v>1082.260287172206</v>
+        <v>764.138744929108</v>
       </c>
       <c r="Y43" t="n">
-        <v>1082.260287172206</v>
+        <v>764.138744929108</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1264.252069242805</v>
+        <v>1194.706127402115</v>
       </c>
       <c r="C44" t="n">
-        <v>1264.252069242805</v>
+        <v>825.7436104617036</v>
       </c>
       <c r="D44" t="n">
-        <v>1264.252069242805</v>
+        <v>467.4779118549531</v>
       </c>
       <c r="E44" t="n">
-        <v>878.4638166445607</v>
+        <v>467.4779118549531</v>
       </c>
       <c r="F44" t="n">
         <v>467.4779118549531</v>
@@ -7648,28 +7648,28 @@
         <v>51.47062640842712</v>
       </c>
       <c r="J44" t="n">
-        <v>329.9913548027439</v>
+        <v>162.5857057823909</v>
       </c>
       <c r="K44" t="n">
-        <v>547.2625734173959</v>
+        <v>379.8569243970429</v>
       </c>
       <c r="L44" t="n">
-        <v>853.7084944021823</v>
+        <v>686.3028453818293</v>
       </c>
       <c r="M44" t="n">
-        <v>1226.358064749472</v>
+        <v>1058.952415729119</v>
       </c>
       <c r="N44" t="n">
-        <v>1609.651303116945</v>
+        <v>1442.245654096592</v>
       </c>
       <c r="O44" t="n">
-        <v>1958.248977943291</v>
+        <v>1790.843328922938</v>
       </c>
       <c r="P44" t="n">
-        <v>2221.268027456376</v>
+        <v>2212.53306993889</v>
       </c>
       <c r="Q44" t="n">
-        <v>2507.009260908516</v>
+        <v>2572.068516582769</v>
       </c>
       <c r="R44" t="n">
         <v>2573.531320421356</v>
@@ -7678,22 +7678,22 @@
         <v>2441.938092742882</v>
       </c>
       <c r="T44" t="n">
-        <v>2277.922931117492</v>
+        <v>2231.868103638465</v>
       </c>
       <c r="U44" t="n">
-        <v>2024.317667568007</v>
+        <v>2231.868103638465</v>
       </c>
       <c r="V44" t="n">
-        <v>2024.317667568007</v>
+        <v>2231.868103638465</v>
       </c>
       <c r="W44" t="n">
-        <v>2024.317667568007</v>
+        <v>1879.099448368351</v>
       </c>
       <c r="X44" t="n">
-        <v>1650.851909306927</v>
+        <v>1584.845459377927</v>
       </c>
       <c r="Y44" t="n">
-        <v>1650.851909306927</v>
+        <v>1194.706127402115</v>
       </c>
     </row>
     <row r="45">
@@ -7730,22 +7730,22 @@
         <v>223.6622844990725</v>
       </c>
       <c r="K45" t="n">
-        <v>644.5860975745757</v>
+        <v>382.7655129321229</v>
       </c>
       <c r="L45" t="n">
-        <v>904.8425639158711</v>
+        <v>693.3574735933718</v>
       </c>
       <c r="M45" t="n">
-        <v>1227.906452803957</v>
+        <v>1330.306475397657</v>
       </c>
       <c r="N45" t="n">
-        <v>1573.929526440055</v>
+        <v>1967.255477201943</v>
       </c>
       <c r="O45" t="n">
-        <v>1868.253242523802</v>
+        <v>2261.57919328569</v>
       </c>
       <c r="P45" t="n">
-        <v>2270.490342378294</v>
+        <v>2478.466857236785</v>
       </c>
       <c r="Q45" t="n">
         <v>2573.531320421356</v>
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1093.330339032089</v>
+        <v>220.406809336334</v>
       </c>
       <c r="C46" t="n">
-        <v>924.3941561041819</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="D46" t="n">
-        <v>774.2775166918461</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="E46" t="n">
-        <v>626.364423109453</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="F46" t="n">
-        <v>479.4744756115426</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="G46" t="n">
-        <v>311.3523040573389</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="H46" t="n">
-        <v>161.4068485435022</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="I46" t="n">
         <v>51.47062640842712</v>
       </c>
       <c r="J46" t="n">
-        <v>67.53625427207784</v>
+        <v>67.53625427207785</v>
       </c>
       <c r="K46" t="n">
-        <v>223.7738527315135</v>
+        <v>223.7738527315136</v>
       </c>
       <c r="L46" t="n">
-        <v>479.230622640079</v>
+        <v>479.2306226400791</v>
       </c>
       <c r="M46" t="n">
         <v>758.9630919210501</v>
@@ -7830,28 +7830,28 @@
         <v>1504.812354733476</v>
       </c>
       <c r="R46" t="n">
-        <v>1396.127074232353</v>
+        <v>1504.812354733476</v>
       </c>
       <c r="S46" t="n">
-        <v>1396.127074232353</v>
+        <v>1504.812354733476</v>
       </c>
       <c r="T46" t="n">
-        <v>1396.127074232353</v>
+        <v>1281.254035515787</v>
       </c>
       <c r="U46" t="n">
-        <v>1396.127074232353</v>
+        <v>992.1282958271254</v>
       </c>
       <c r="V46" t="n">
-        <v>1396.127074232353</v>
+        <v>958.6061094148422</v>
       </c>
       <c r="W46" t="n">
-        <v>1396.127074232353</v>
+        <v>669.1889393778815</v>
       </c>
       <c r="X46" t="n">
-        <v>1396.127074232353</v>
+        <v>441.1993884798641</v>
       </c>
       <c r="Y46" t="n">
-        <v>1274.978803862329</v>
+        <v>220.406809336334</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>235.3925885601156</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>251.0691524851223</v>
       </c>
       <c r="M2" t="n">
-        <v>245.0306783175538</v>
+        <v>245.6489707424078</v>
       </c>
       <c r="N2" t="n">
-        <v>244.715801111726</v>
+        <v>244.097508686872</v>
       </c>
       <c r="O2" t="n">
-        <v>245.4009489368218</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>246.5357332704046</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,19 +8060,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>153.144176489494</v>
       </c>
       <c r="L3" t="n">
-        <v>153.2388248701553</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>146.0261571736144</v>
       </c>
       <c r="O3" t="n">
-        <v>157.8989819595795</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>149.2771449294653</v>
@@ -8221,7 +8221,7 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>251.0691524851223</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
         <v>245.6489707424078</v>
@@ -8230,10 +8230,10 @@
         <v>244.715801111726</v>
       </c>
       <c r="O5" t="n">
-        <v>244.7826565119678</v>
+        <v>245.4009489368218</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>245.9174408455507</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>153.144176489494</v>
+        <v>152.5258840646401</v>
       </c>
       <c r="L6" t="n">
         <v>138.5543797798742</v>
@@ -8309,7 +8309,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>157.2806895347256</v>
+        <v>157.8989819595795</v>
       </c>
       <c r="P6" t="n">
         <v>149.2771449294653</v>
@@ -8379,7 +8379,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>150.1874137963733</v>
+        <v>149.5691213715194</v>
       </c>
       <c r="M7" t="n">
         <v>154.2285214627401</v>
@@ -8388,7 +8388,7 @@
         <v>142.9882819803682</v>
       </c>
       <c r="O7" t="n">
-        <v>153.1409835421239</v>
+        <v>153.7592759669778</v>
       </c>
       <c r="P7" t="n">
         <v>135.0065633140411</v>
@@ -8455,7 +8455,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>245.7101422396114</v>
       </c>
       <c r="L8" t="n">
         <v>261.3867061646181</v>
@@ -8464,13 +8464,13 @@
         <v>255.9665244219036</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>253.9981915106306</v>
       </c>
       <c r="O8" t="n">
-        <v>254.6833393357264</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>256.8532869499004</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8698,7 +8698,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>266.9691226838341</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8710,7 +8710,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>137.7753813753203</v>
+        <v>39.9028738635601</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8780,13 +8780,13 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>133.2241208003159</v>
       </c>
       <c r="O12" t="n">
-        <v>187.2216524276743</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8947,7 +8947,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>137.7753813753203</v>
+        <v>137.7753813753207</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9008,16 +9008,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>187.2216524276748</v>
       </c>
       <c r="M15" t="n">
-        <v>143.1881007304813</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>293.8645739072606</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>30.88745500881015</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>94.55700588748982</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9184,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>137.7753813753207</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>172.5874376251638</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>78.83617152358622</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>30.88745500881015</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>94.55700588748982</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9418,10 +9418,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>306.8719965473942</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>133.2241208003159</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>172.5874376251633</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>30.88745500881015</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>18.28955291488617</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>298.7064712356453</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>172.5874376251637</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>187.2216524276743</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>30.88745500881015</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>298.7064712356453</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9895,10 +9895,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>127.2243482756988</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9959,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>172.5874376251637</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>187.2216524276743</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>30.88745500881015</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10114,13 +10114,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>239.0547701869592</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>298.7064712356444</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>172.5874376251635</v>
+        <v>187.2216524276743</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>30.88745500881015</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>18.28955291488629</v>
+        <v>18.28955291488617</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10439,19 +10439,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>187.2216524276745</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>172.5874376251635</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>30.88745500881016</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>266.969122683834</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10606,10 +10606,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>203.4918012483028</v>
+        <v>39.90287386355965</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>187.2216524276746</v>
+        <v>172.5874376251637</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>30.88745500881016</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>137.7753813753209</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>137.7753813753203</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10913,16 +10913,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>108.6720818815998</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>346.0861471924632</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>172.5874376251632</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11062,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>137.7753813753209</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11080,7 +11080,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>137.7753813753203</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>187.2216524276748</v>
+        <v>172.5874376251637</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>30.88745500881016</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11314,13 +11314,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>160.2734257604719</v>
       </c>
       <c r="Q44" t="n">
-        <v>137.7753813753203</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,28 +11378,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>50.84393365651857</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>317.0556696123226</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>293.8645739072606</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>187.2216524276741</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>30.88745500881016</v>
+        <v>30.88745500881015</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23266,19 +23266,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>132.3216638272524</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>411.8472125920607</v>
       </c>
       <c r="H11" t="n">
         <v>304.0859074973321</v>
       </c>
       <c r="I11" t="n">
-        <v>77.25676497358231</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>130.2772954016887</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23317,13 +23317,13 @@
         <v>251.0692109139906</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>33.8282332433572</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,19 +23424,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4409498386617</v>
       </c>
       <c r="H13" t="n">
         <v>148.4460009586983</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>108.8368599137244</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>81.37196202478162</v>
+        <v>107.5984276961118</v>
       </c>
       <c r="S13" t="n">
-        <v>197.003810860145</v>
+        <v>30.12301518509</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2344822917747</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>340.6571363195226</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23503,7 +23503,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>130.2772954016887</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>207.9692892133734</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0692109139906</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>170.2686808013728</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>107.5984276961119</v>
+        <v>107.5984276961118</v>
       </c>
       <c r="S16" t="n">
-        <v>27.3849325116725</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.3227360255122</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>30.12301518508991</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>304.0859074973321</v>
       </c>
       <c r="I17" t="n">
-        <v>77.14640499487554</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,22 +23785,22 @@
         <v>130.2772954016887</v>
       </c>
       <c r="T17" t="n">
-        <v>207.9692892133734</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.0692109139906</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>366.1541206049895</v>
       </c>
     </row>
     <row r="18">
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>107.5984276961119</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.003810860145</v>
@@ -23946,19 +23946,19 @@
         <v>221.3227360255122</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2344822917747</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>53.84256542556057</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>104.4204991863009</v>
       </c>
     </row>
     <row r="20">
@@ -23977,7 +23977,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>280.4315324796356</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -23989,7 +23989,7 @@
         <v>304.0859074973321</v>
       </c>
       <c r="I20" t="n">
-        <v>77.25676497358231</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>8.447328735804561</v>
       </c>
       <c r="T20" t="n">
         <v>207.9692892133734</v>
@@ -24031,7 +24031,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>87.53128251976644</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4409498386617</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>121.013591394837</v>
+        <v>148.4460009586983</v>
       </c>
       <c r="I22" t="n">
         <v>108.8368599137244</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>107.5984276961118</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.003810860145</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>107.5984276961119</v>
+        <v>107.5984276961118</v>
       </c>
       <c r="S25" t="n">
-        <v>30.12301518509</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>30.12301518508994</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4409498386617</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>137.9404914892979</v>
       </c>
       <c r="I28" t="n">
-        <v>0.8242620247253143</v>
+        <v>108.8368599137244</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.003810860145</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>107.5984276961119</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.003810860145</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>51.70385767703974</v>
+        <v>43.4554298321693</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4409498386617</v>
@@ -25095,7 +25095,7 @@
         <v>148.4460009586983</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>108.8368599137244</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>107.5984276961119</v>
+        <v>107.5984276961118</v>
       </c>
       <c r="S34" t="n">
-        <v>197.003810860145</v>
+        <v>30.12301518509</v>
       </c>
       <c r="T34" t="n">
-        <v>221.3227360255122</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2344822917747</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>188.3951409179272</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25162,7 +25162,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>356.8376942915976</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>304.0859074973321</v>
       </c>
       <c r="I35" t="n">
-        <v>77.25676497358231</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,19 +25210,19 @@
         <v>207.9692892133734</v>
       </c>
       <c r="U35" t="n">
-        <v>219.4047197394555</v>
+        <v>251.0692109139906</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4409498386617</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.4460009586983</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>107.5984276961119</v>
+        <v>107.5984276961118</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>150.8595149886928</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.3227360255122</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>30.12301518508988</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>396.8931746139437</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>411.8472125920607</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>304.0859074973321</v>
       </c>
       <c r="I38" t="n">
-        <v>77.25676497358231</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>130.2772954016887</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>207.9692892133734</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0692109139906</v>
+        <v>170.8423982188107</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25551,19 +25551,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>2.055976759637417</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4409498386617</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.4460009586983</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>107.5984276961119</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.003810860145</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2344822917747</v>
+        <v>17.63939438327242</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>339.0883311460547</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>57.71283426706225</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>304.0859074973321</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>130.2772954016887</v>
       </c>
       <c r="T41" t="n">
-        <v>207.9692892133734</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.0692109139906</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.35038168455969</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4409498386617</v>
+        <v>81.20197637283773</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.4460009586983</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>108.8368599137244</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>107.5984276961119</v>
+        <v>107.5984276961118</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.003810860145</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2344822917747</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25851,7 +25851,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25864,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>45.5942792042367</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.0692109139906</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>78.41965157794976</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4409498386617</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.4460009586983</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>108.8368599137244</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>107.5984276961118</v>
       </c>
       <c r="S46" t="n">
         <v>197.003810860145</v>
       </c>
       <c r="T46" t="n">
-        <v>221.3227360255122</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2344822917747</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>218.9506787756677</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>98.64786568577085</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>647211.2944417313</v>
+        <v>647211.2944417315</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>876897.2333908882</v>
+        <v>876897.2333908881</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>876897.2333908881</v>
+        <v>876897.2333908882</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>647211.2944417312</v>
+        <v>647211.2944417314</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>647211.2944417314</v>
+        <v>647211.2944417312</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>647211.2944417314</v>
+        <v>647211.2944417312</v>
       </c>
     </row>
   </sheetData>
@@ -26316,28 +26316,28 @@
         <v>595255.2831516052</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516056</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516051</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="E2" t="n">
+        <v>440433.1462342834</v>
+      </c>
+      <c r="F2" t="n">
+        <v>440433.1462342834</v>
+      </c>
+      <c r="G2" t="n">
+        <v>440433.1462342834</v>
+      </c>
+      <c r="H2" t="n">
         <v>440433.1462342833</v>
       </c>
-      <c r="F2" t="n">
-        <v>440433.1462342833</v>
-      </c>
-      <c r="G2" t="n">
-        <v>440433.1462342832</v>
-      </c>
-      <c r="H2" t="n">
-        <v>440433.1462342832</v>
-      </c>
       <c r="I2" t="n">
-        <v>567979.405212325</v>
+        <v>567979.4052123253</v>
       </c>
       <c r="J2" t="n">
-        <v>567979.4052123253</v>
+        <v>567979.4052123249</v>
       </c>
       <c r="K2" t="n">
         <v>567979.4052123253</v>
@@ -26352,10 +26352,10 @@
         <v>440433.1462342833</v>
       </c>
       <c r="O2" t="n">
-        <v>440433.1462342833</v>
+        <v>440433.1462342834</v>
       </c>
       <c r="P2" t="n">
-        <v>440433.1462342832</v>
+        <v>440433.1462342835</v>
       </c>
     </row>
     <row r="3">
@@ -26371,7 +26371,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3204.941699461775</v>
+        <v>3204.941699461776</v>
       </c>
       <c r="E3" t="n">
         <v>875024.8519238397</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>151442.5885750763</v>
+        <v>151442.5885750762</v>
       </c>
       <c r="J3" t="n">
         <v>4003.869454409995</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2611.279978297325</v>
+        <v>2611.279978297268</v>
       </c>
       <c r="M3" t="n">
-        <v>12026.6750749132</v>
+        <v>12026.67507491323</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,13 +26423,13 @@
         <v>402526.5473127806</v>
       </c>
       <c r="D4" t="n">
-        <v>400839.1127573194</v>
+        <v>400839.1127573195</v>
       </c>
       <c r="E4" t="n">
         <v>25048.99765378029</v>
       </c>
       <c r="F4" t="n">
-        <v>25048.99765378029</v>
+        <v>25048.9976537803</v>
       </c>
       <c r="G4" t="n">
         <v>25048.9976537803</v>
@@ -26441,7 +26441,7 @@
         <v>74680.16211261952</v>
       </c>
       <c r="J4" t="n">
-        <v>74680.16211261952</v>
+        <v>74680.1621126195</v>
       </c>
       <c r="K4" t="n">
         <v>74680.16211261952</v>
@@ -26450,13 +26450,13 @@
         <v>74680.16211261952</v>
       </c>
       <c r="M4" t="n">
+        <v>25048.99765378028</v>
+      </c>
+      <c r="N4" t="n">
+        <v>25048.99765378028</v>
+      </c>
+      <c r="O4" t="n">
         <v>25048.99765378029</v>
-      </c>
-      <c r="N4" t="n">
-        <v>25048.9976537803</v>
-      </c>
-      <c r="O4" t="n">
-        <v>25048.99765378031</v>
       </c>
       <c r="P4" t="n">
         <v>25048.99765378029</v>
@@ -26478,16 +26478,16 @@
         <v>35185.31370463355</v>
       </c>
       <c r="E5" t="n">
-        <v>57856.12384700599</v>
+        <v>57856.12384700601</v>
       </c>
       <c r="F5" t="n">
-        <v>57856.12384700599</v>
+        <v>57856.12384700601</v>
       </c>
       <c r="G5" t="n">
-        <v>57856.123847006</v>
+        <v>57856.12384700601</v>
       </c>
       <c r="H5" t="n">
-        <v>57856.12384700599</v>
+        <v>57856.12384700601</v>
       </c>
       <c r="I5" t="n">
         <v>92481.85624634504</v>
@@ -26496,7 +26496,7 @@
         <v>92481.85624634504</v>
       </c>
       <c r="K5" t="n">
-        <v>92481.85624634502</v>
+        <v>92481.85624634504</v>
       </c>
       <c r="L5" t="n">
         <v>92481.85624634504</v>
@@ -26524,46 +26524,46 @@
         <v>153042.4300936197</v>
       </c>
       <c r="C6" t="n">
-        <v>158170.7293979047</v>
+        <v>158170.7293979049</v>
       </c>
       <c r="D6" t="n">
-        <v>156025.9149901903</v>
+        <v>156025.91499019</v>
       </c>
       <c r="E6" t="n">
-        <v>-522835.521566802</v>
+        <v>-518030.6966279885</v>
       </c>
       <c r="F6" t="n">
-        <v>352189.3303570377</v>
+        <v>356994.1552958511</v>
       </c>
       <c r="G6" t="n">
-        <v>352189.3303570375</v>
+        <v>356994.1552958511</v>
       </c>
       <c r="H6" t="n">
-        <v>352189.3303570375</v>
+        <v>356994.1552958511</v>
       </c>
       <c r="I6" t="n">
-        <v>248434.2507631366</v>
+        <v>249280.7435267698</v>
       </c>
       <c r="J6" t="n">
-        <v>395872.9698838031</v>
+        <v>396719.4626474356</v>
       </c>
       <c r="K6" t="n">
-        <v>399876.8393382131</v>
+        <v>400723.332101846</v>
       </c>
       <c r="L6" t="n">
-        <v>397265.5593599158</v>
+        <v>398112.0521235487</v>
       </c>
       <c r="M6" t="n">
-        <v>340162.6552821245</v>
+        <v>344967.4802209379</v>
       </c>
       <c r="N6" t="n">
-        <v>352189.3303570377</v>
+        <v>356994.1552958511</v>
       </c>
       <c r="O6" t="n">
-        <v>352189.3303570375</v>
+        <v>356994.1552958512</v>
       </c>
       <c r="P6" t="n">
-        <v>352189.3303570375</v>
+        <v>356994.1552958512</v>
       </c>
     </row>
   </sheetData>
@@ -26749,37 +26749,37 @@
         <v>859.5618246147427</v>
       </c>
       <c r="F3" t="n">
-        <v>859.5618246147426</v>
+        <v>859.5618246147427</v>
       </c>
       <c r="G3" t="n">
-        <v>859.5618246147426</v>
+        <v>859.5618246147427</v>
       </c>
       <c r="H3" t="n">
-        <v>859.5618246147426</v>
+        <v>859.5618246147427</v>
       </c>
       <c r="I3" t="n">
-        <v>859.5618246147426</v>
+        <v>859.5618246147427</v>
       </c>
       <c r="J3" t="n">
-        <v>859.5618246147426</v>
+        <v>859.5618246147427</v>
       </c>
       <c r="K3" t="n">
-        <v>859.5618246147426</v>
+        <v>859.5618246147427</v>
       </c>
       <c r="L3" t="n">
-        <v>859.5618246147426</v>
+        <v>859.5618246147427</v>
       </c>
       <c r="M3" t="n">
-        <v>859.5618246147426</v>
+        <v>859.5618246147427</v>
       </c>
       <c r="N3" t="n">
-        <v>859.5618246147426</v>
+        <v>859.5618246147427</v>
       </c>
       <c r="O3" t="n">
-        <v>859.5618246147426</v>
+        <v>859.5618246147427</v>
       </c>
       <c r="P3" t="n">
-        <v>859.5618246147426</v>
+        <v>859.5618246147427</v>
       </c>
     </row>
     <row r="4">
@@ -26798,16 +26798,16 @@
         <v>25.62029119463083</v>
       </c>
       <c r="E4" t="n">
-        <v>643.3828301053389</v>
+        <v>643.3828301053391</v>
       </c>
       <c r="F4" t="n">
-        <v>643.3828301053389</v>
+        <v>643.3828301053391</v>
       </c>
       <c r="G4" t="n">
         <v>643.3828301053391</v>
       </c>
       <c r="H4" t="n">
-        <v>643.3828301053389</v>
+        <v>643.3828301053391</v>
       </c>
       <c r="I4" t="n">
         <v>1212.885007726047</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>10.31755367949578</v>
+        <v>10.31755367949579</v>
       </c>
       <c r="E4" t="n">
-        <v>617.7625389107081</v>
+        <v>617.7625389107083</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>569.502177620708</v>
+        <v>569.5021776207077</v>
       </c>
       <c r="J4" t="n">
         <v>15.30273751513505</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>10.31755367949601</v>
+        <v>10.31755367949579</v>
       </c>
       <c r="M4" t="n">
-        <v>48.26036129000017</v>
+        <v>48.26036129000029</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>10.31755367949578</v>
+        <v>10.31755367949579</v>
       </c>
       <c r="M4" t="n">
-        <v>617.7625389107081</v>
+        <v>617.7625389107083</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>134.6010260184174</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>370.9698467333213</v>
       </c>
     </row>
     <row r="3">
@@ -27460,10 +27460,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>159.9764391112427</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>132.1423280495037</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27472,13 +27472,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>122.0407796480756</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>74.09389533628003</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>84.85509663750808</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -27514,13 +27514,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>210.6386445658398</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>217.4978496342902</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>238.9629232838465</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>164.5292426668022</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>151.9440835834928</v>
       </c>
       <c r="D4" t="n">
-        <v>137.8582625499879</v>
+        <v>133.3127355030773</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>131.1312251314341</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>131.9423968196003</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
@@ -27578,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>70.85930573655934</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -27624,7 +27624,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>366.6622781495295</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27669,7 +27669,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>207.8277576413991</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -27706,7 +27706,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>132.3371525163108</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>122.0407796480756</v>
@@ -27715,7 +27715,7 @@
         <v>96.93270672136141</v>
       </c>
       <c r="I6" t="n">
-        <v>74.09389533628003</v>
+        <v>76.66457297434199</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>84.85509663750808</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>164.5292426668022</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27782,19 +27782,19 @@
         <v>133.3127355030773</v>
       </c>
       <c r="E7" t="n">
-        <v>131.1312251314341</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>157.2337688902343</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>144.6932644590339</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
@@ -27858,7 +27858,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>350.6151697678251</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27873,7 +27873,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>206.4080177175481</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -28016,13 +28016,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>122.9951818235815</v>
+        <v>125.4197619003401</v>
       </c>
       <c r="E10" t="n">
         <v>120.8136714519383</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>119.8007568283004</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28034,7 +28034,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>70.16346899880048</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -31989,10 +31989,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.455524923074339</v>
+        <v>3.45552492307434</v>
       </c>
       <c r="H14" t="n">
-        <v>35.38889461843509</v>
+        <v>35.3888946184351</v>
       </c>
       <c r="I14" t="n">
         <v>133.2191245968236</v>
@@ -32007,16 +32007,16 @@
         <v>545.3077492980543</v>
       </c>
       <c r="M14" t="n">
-        <v>606.7599406487775</v>
+        <v>606.7599406487776</v>
       </c>
       <c r="N14" t="n">
         <v>616.5779508364626</v>
       </c>
       <c r="O14" t="n">
-        <v>582.217074882642</v>
+        <v>582.2170748826421</v>
       </c>
       <c r="P14" t="n">
-        <v>496.9088033442442</v>
+        <v>496.9088033442443</v>
       </c>
       <c r="Q14" t="n">
         <v>373.1578170366444</v>
@@ -32071,13 +32071,13 @@
         <v>1.848868830303409</v>
       </c>
       <c r="H15" t="n">
-        <v>17.85618054529871</v>
+        <v>17.85618054529872</v>
       </c>
       <c r="I15" t="n">
-        <v>63.65622946439368</v>
+        <v>63.65622946439369</v>
       </c>
       <c r="J15" t="n">
-        <v>174.6775590945865</v>
+        <v>174.6775590945866</v>
       </c>
       <c r="K15" t="n">
         <v>298.5517707249149</v>
@@ -32086,13 +32086,13 @@
         <v>401.4396993165362</v>
       </c>
       <c r="M15" t="n">
-        <v>468.4611944150346</v>
+        <v>468.4611944150347</v>
       </c>
       <c r="N15" t="n">
         <v>480.8599682814116</v>
       </c>
       <c r="O15" t="n">
-        <v>439.8929273573202</v>
+        <v>439.8929273573203</v>
       </c>
       <c r="P15" t="n">
         <v>353.0528558497799</v>
@@ -32107,7 +32107,7 @@
         <v>34.34192761550408</v>
       </c>
       <c r="T15" t="n">
-        <v>7.452238837933473</v>
+        <v>7.452238837933474</v>
       </c>
       <c r="U15" t="n">
         <v>0.1216361072568033</v>
@@ -32162,7 +32162,7 @@
         <v>180.0852478455149</v>
       </c>
       <c r="L16" t="n">
-        <v>230.4471160614672</v>
+        <v>230.4471160614673</v>
       </c>
       <c r="M16" t="n">
         <v>242.9741728169181</v>
@@ -32180,7 +32180,7 @@
         <v>129.7938355168261</v>
       </c>
       <c r="R16" t="n">
-        <v>69.69496368105763</v>
+        <v>69.69496368105764</v>
       </c>
       <c r="S16" t="n">
         <v>27.01278717682723</v>
@@ -32189,7 +32189,7 @@
         <v>6.622853402769326</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08454706471620428</v>
+        <v>0.0845470647162043</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,10 +32226,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.455524923074339</v>
+        <v>3.45552492307434</v>
       </c>
       <c r="H17" t="n">
-        <v>35.38889461843509</v>
+        <v>35.3888946184351</v>
       </c>
       <c r="I17" t="n">
         <v>133.2191245968236</v>
@@ -32244,16 +32244,16 @@
         <v>545.3077492980543</v>
       </c>
       <c r="M17" t="n">
-        <v>606.7599406487775</v>
+        <v>606.7599406487776</v>
       </c>
       <c r="N17" t="n">
         <v>616.5779508364626</v>
       </c>
       <c r="O17" t="n">
-        <v>582.217074882642</v>
+        <v>582.2170748826421</v>
       </c>
       <c r="P17" t="n">
-        <v>496.9088033442442</v>
+        <v>496.9088033442443</v>
       </c>
       <c r="Q17" t="n">
         <v>373.1578170366444</v>
@@ -32308,13 +32308,13 @@
         <v>1.848868830303409</v>
       </c>
       <c r="H18" t="n">
-        <v>17.85618054529871</v>
+        <v>17.85618054529872</v>
       </c>
       <c r="I18" t="n">
-        <v>63.65622946439368</v>
+        <v>63.65622946439369</v>
       </c>
       <c r="J18" t="n">
-        <v>174.6775590945865</v>
+        <v>174.6775590945866</v>
       </c>
       <c r="K18" t="n">
         <v>298.5517707249149</v>
@@ -32323,13 +32323,13 @@
         <v>401.4396993165362</v>
       </c>
       <c r="M18" t="n">
-        <v>468.4611944150346</v>
+        <v>468.4611944150347</v>
       </c>
       <c r="N18" t="n">
         <v>480.8599682814116</v>
       </c>
       <c r="O18" t="n">
-        <v>439.8929273573202</v>
+        <v>439.8929273573203</v>
       </c>
       <c r="P18" t="n">
         <v>353.0528558497799</v>
@@ -32344,7 +32344,7 @@
         <v>34.34192761550408</v>
       </c>
       <c r="T18" t="n">
-        <v>7.452238837933473</v>
+        <v>7.452238837933474</v>
       </c>
       <c r="U18" t="n">
         <v>0.1216361072568033</v>
@@ -32399,7 +32399,7 @@
         <v>180.0852478455149</v>
       </c>
       <c r="L19" t="n">
-        <v>230.4471160614672</v>
+        <v>230.4471160614673</v>
       </c>
       <c r="M19" t="n">
         <v>242.9741728169181</v>
@@ -32417,7 +32417,7 @@
         <v>129.7938355168261</v>
       </c>
       <c r="R19" t="n">
-        <v>69.69496368105763</v>
+        <v>69.69496368105764</v>
       </c>
       <c r="S19" t="n">
         <v>27.01278717682723</v>
@@ -32426,7 +32426,7 @@
         <v>6.622853402769326</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08454706471620428</v>
+        <v>0.0845470647162043</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,10 +32463,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.455524923074339</v>
+        <v>3.45552492307434</v>
       </c>
       <c r="H20" t="n">
-        <v>35.38889461843509</v>
+        <v>35.3888946184351</v>
       </c>
       <c r="I20" t="n">
         <v>133.2191245968236</v>
@@ -32481,16 +32481,16 @@
         <v>545.3077492980543</v>
       </c>
       <c r="M20" t="n">
-        <v>606.7599406487775</v>
+        <v>606.7599406487776</v>
       </c>
       <c r="N20" t="n">
         <v>616.5779508364626</v>
       </c>
       <c r="O20" t="n">
-        <v>582.217074882642</v>
+        <v>582.2170748826421</v>
       </c>
       <c r="P20" t="n">
-        <v>496.9088033442442</v>
+        <v>496.9088033442443</v>
       </c>
       <c r="Q20" t="n">
         <v>373.1578170366444</v>
@@ -32545,13 +32545,13 @@
         <v>1.848868830303409</v>
       </c>
       <c r="H21" t="n">
-        <v>17.85618054529871</v>
+        <v>17.85618054529872</v>
       </c>
       <c r="I21" t="n">
-        <v>63.65622946439368</v>
+        <v>63.65622946439369</v>
       </c>
       <c r="J21" t="n">
-        <v>174.6775590945865</v>
+        <v>174.6775590945866</v>
       </c>
       <c r="K21" t="n">
         <v>298.5517707249149</v>
@@ -32560,13 +32560,13 @@
         <v>401.4396993165362</v>
       </c>
       <c r="M21" t="n">
-        <v>468.4611944150346</v>
+        <v>468.4611944150347</v>
       </c>
       <c r="N21" t="n">
         <v>480.8599682814116</v>
       </c>
       <c r="O21" t="n">
-        <v>439.8929273573202</v>
+        <v>439.8929273573203</v>
       </c>
       <c r="P21" t="n">
         <v>353.0528558497799</v>
@@ -32581,7 +32581,7 @@
         <v>34.34192761550408</v>
       </c>
       <c r="T21" t="n">
-        <v>7.452238837933473</v>
+        <v>7.452238837933474</v>
       </c>
       <c r="U21" t="n">
         <v>0.1216361072568033</v>
@@ -32636,7 +32636,7 @@
         <v>180.0852478455149</v>
       </c>
       <c r="L22" t="n">
-        <v>230.4471160614672</v>
+        <v>230.4471160614673</v>
       </c>
       <c r="M22" t="n">
         <v>242.9741728169181</v>
@@ -32654,7 +32654,7 @@
         <v>129.7938355168261</v>
       </c>
       <c r="R22" t="n">
-        <v>69.69496368105763</v>
+        <v>69.69496368105764</v>
       </c>
       <c r="S22" t="n">
         <v>27.01278717682723</v>
@@ -32663,7 +32663,7 @@
         <v>6.622853402769326</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08454706471620428</v>
+        <v>0.0845470647162043</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,10 +32700,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.455524923074339</v>
+        <v>3.45552492307434</v>
       </c>
       <c r="H23" t="n">
-        <v>35.38889461843509</v>
+        <v>35.3888946184351</v>
       </c>
       <c r="I23" t="n">
         <v>133.2191245968236</v>
@@ -32718,16 +32718,16 @@
         <v>545.3077492980543</v>
       </c>
       <c r="M23" t="n">
-        <v>606.7599406487775</v>
+        <v>606.7599406487776</v>
       </c>
       <c r="N23" t="n">
         <v>616.5779508364626</v>
       </c>
       <c r="O23" t="n">
-        <v>582.217074882642</v>
+        <v>582.2170748826421</v>
       </c>
       <c r="P23" t="n">
-        <v>496.9088033442442</v>
+        <v>496.9088033442443</v>
       </c>
       <c r="Q23" t="n">
         <v>373.1578170366444</v>
@@ -32782,13 +32782,13 @@
         <v>1.848868830303409</v>
       </c>
       <c r="H24" t="n">
-        <v>17.85618054529871</v>
+        <v>17.85618054529872</v>
       </c>
       <c r="I24" t="n">
-        <v>63.65622946439368</v>
+        <v>63.65622946439369</v>
       </c>
       <c r="J24" t="n">
-        <v>174.6775590945865</v>
+        <v>174.6775590945866</v>
       </c>
       <c r="K24" t="n">
         <v>298.5517707249149</v>
@@ -32797,13 +32797,13 @@
         <v>401.4396993165362</v>
       </c>
       <c r="M24" t="n">
-        <v>468.4611944150346</v>
+        <v>468.4611944150347</v>
       </c>
       <c r="N24" t="n">
         <v>480.8599682814116</v>
       </c>
       <c r="O24" t="n">
-        <v>439.8929273573202</v>
+        <v>439.8929273573203</v>
       </c>
       <c r="P24" t="n">
         <v>353.0528558497799</v>
@@ -32818,7 +32818,7 @@
         <v>34.34192761550408</v>
       </c>
       <c r="T24" t="n">
-        <v>7.452238837933473</v>
+        <v>7.452238837933474</v>
       </c>
       <c r="U24" t="n">
         <v>0.1216361072568033</v>
@@ -32873,7 +32873,7 @@
         <v>180.0852478455149</v>
       </c>
       <c r="L25" t="n">
-        <v>230.4471160614672</v>
+        <v>230.4471160614673</v>
       </c>
       <c r="M25" t="n">
         <v>242.9741728169181</v>
@@ -32891,7 +32891,7 @@
         <v>129.7938355168261</v>
       </c>
       <c r="R25" t="n">
-        <v>69.69496368105763</v>
+        <v>69.69496368105764</v>
       </c>
       <c r="S25" t="n">
         <v>27.01278717682723</v>
@@ -32900,7 +32900,7 @@
         <v>6.622853402769326</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08454706471620428</v>
+        <v>0.0845470647162043</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,10 +32937,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.455524923074339</v>
+        <v>3.45552492307434</v>
       </c>
       <c r="H26" t="n">
-        <v>35.38889461843509</v>
+        <v>35.3888946184351</v>
       </c>
       <c r="I26" t="n">
         <v>133.2191245968236</v>
@@ -32955,16 +32955,16 @@
         <v>545.3077492980543</v>
       </c>
       <c r="M26" t="n">
-        <v>606.7599406487775</v>
+        <v>606.7599406487776</v>
       </c>
       <c r="N26" t="n">
         <v>616.5779508364626</v>
       </c>
       <c r="O26" t="n">
-        <v>582.217074882642</v>
+        <v>582.2170748826421</v>
       </c>
       <c r="P26" t="n">
-        <v>496.9088033442442</v>
+        <v>496.9088033442443</v>
       </c>
       <c r="Q26" t="n">
         <v>373.1578170366444</v>
@@ -33019,13 +33019,13 @@
         <v>1.848868830303409</v>
       </c>
       <c r="H27" t="n">
-        <v>17.85618054529871</v>
+        <v>17.85618054529872</v>
       </c>
       <c r="I27" t="n">
-        <v>63.65622946439368</v>
+        <v>63.65622946439369</v>
       </c>
       <c r="J27" t="n">
-        <v>174.6775590945865</v>
+        <v>174.6775590945866</v>
       </c>
       <c r="K27" t="n">
         <v>298.5517707249149</v>
@@ -33034,13 +33034,13 @@
         <v>401.4396993165362</v>
       </c>
       <c r="M27" t="n">
-        <v>468.4611944150346</v>
+        <v>468.4611944150347</v>
       </c>
       <c r="N27" t="n">
         <v>480.8599682814116</v>
       </c>
       <c r="O27" t="n">
-        <v>439.8929273573202</v>
+        <v>439.8929273573203</v>
       </c>
       <c r="P27" t="n">
         <v>353.0528558497799</v>
@@ -33055,7 +33055,7 @@
         <v>34.34192761550408</v>
       </c>
       <c r="T27" t="n">
-        <v>7.452238837933473</v>
+        <v>7.452238837933474</v>
       </c>
       <c r="U27" t="n">
         <v>0.1216361072568033</v>
@@ -33110,7 +33110,7 @@
         <v>180.0852478455149</v>
       </c>
       <c r="L28" t="n">
-        <v>230.4471160614672</v>
+        <v>230.4471160614673</v>
       </c>
       <c r="M28" t="n">
         <v>242.9741728169181</v>
@@ -33128,7 +33128,7 @@
         <v>129.7938355168261</v>
       </c>
       <c r="R28" t="n">
-        <v>69.69496368105763</v>
+        <v>69.69496368105764</v>
       </c>
       <c r="S28" t="n">
         <v>27.01278717682723</v>
@@ -33137,7 +33137,7 @@
         <v>6.622853402769326</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08454706471620428</v>
+        <v>0.0845470647162043</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,10 +33174,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.455524923074339</v>
+        <v>3.45552492307434</v>
       </c>
       <c r="H29" t="n">
-        <v>35.38889461843509</v>
+        <v>35.3888946184351</v>
       </c>
       <c r="I29" t="n">
         <v>133.2191245968236</v>
@@ -33192,16 +33192,16 @@
         <v>545.3077492980543</v>
       </c>
       <c r="M29" t="n">
-        <v>606.7599406487775</v>
+        <v>606.7599406487776</v>
       </c>
       <c r="N29" t="n">
         <v>616.5779508364626</v>
       </c>
       <c r="O29" t="n">
-        <v>582.217074882642</v>
+        <v>582.2170748826421</v>
       </c>
       <c r="P29" t="n">
-        <v>496.9088033442442</v>
+        <v>496.9088033442443</v>
       </c>
       <c r="Q29" t="n">
         <v>373.1578170366444</v>
@@ -33256,13 +33256,13 @@
         <v>1.848868830303409</v>
       </c>
       <c r="H30" t="n">
-        <v>17.85618054529871</v>
+        <v>17.85618054529872</v>
       </c>
       <c r="I30" t="n">
-        <v>63.65622946439368</v>
+        <v>63.65622946439369</v>
       </c>
       <c r="J30" t="n">
-        <v>174.6775590945865</v>
+        <v>174.6775590945866</v>
       </c>
       <c r="K30" t="n">
         <v>298.5517707249149</v>
@@ -33271,13 +33271,13 @@
         <v>401.4396993165362</v>
       </c>
       <c r="M30" t="n">
-        <v>468.4611944150346</v>
+        <v>468.4611944150347</v>
       </c>
       <c r="N30" t="n">
         <v>480.8599682814116</v>
       </c>
       <c r="O30" t="n">
-        <v>439.8929273573202</v>
+        <v>439.8929273573203</v>
       </c>
       <c r="P30" t="n">
         <v>353.0528558497799</v>
@@ -33292,7 +33292,7 @@
         <v>34.34192761550408</v>
       </c>
       <c r="T30" t="n">
-        <v>7.452238837933473</v>
+        <v>7.452238837933474</v>
       </c>
       <c r="U30" t="n">
         <v>0.1216361072568033</v>
@@ -33347,7 +33347,7 @@
         <v>180.0852478455149</v>
       </c>
       <c r="L31" t="n">
-        <v>230.4471160614672</v>
+        <v>230.4471160614673</v>
       </c>
       <c r="M31" t="n">
         <v>242.9741728169181</v>
@@ -33365,7 +33365,7 @@
         <v>129.7938355168261</v>
       </c>
       <c r="R31" t="n">
-        <v>69.69496368105763</v>
+        <v>69.69496368105764</v>
       </c>
       <c r="S31" t="n">
         <v>27.01278717682723</v>
@@ -33374,7 +33374,7 @@
         <v>6.622853402769326</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08454706471620428</v>
+        <v>0.0845470647162043</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,10 +33411,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.455524923074339</v>
+        <v>3.45552492307434</v>
       </c>
       <c r="H32" t="n">
-        <v>35.38889461843509</v>
+        <v>35.3888946184351</v>
       </c>
       <c r="I32" t="n">
         <v>133.2191245968236</v>
@@ -33429,16 +33429,16 @@
         <v>545.3077492980543</v>
       </c>
       <c r="M32" t="n">
-        <v>606.7599406487775</v>
+        <v>606.7599406487776</v>
       </c>
       <c r="N32" t="n">
         <v>616.5779508364626</v>
       </c>
       <c r="O32" t="n">
-        <v>582.217074882642</v>
+        <v>582.2170748826421</v>
       </c>
       <c r="P32" t="n">
-        <v>496.9088033442442</v>
+        <v>496.9088033442443</v>
       </c>
       <c r="Q32" t="n">
         <v>373.1578170366444</v>
@@ -33493,13 +33493,13 @@
         <v>1.848868830303409</v>
       </c>
       <c r="H33" t="n">
-        <v>17.85618054529871</v>
+        <v>17.85618054529872</v>
       </c>
       <c r="I33" t="n">
-        <v>63.65622946439368</v>
+        <v>63.65622946439369</v>
       </c>
       <c r="J33" t="n">
-        <v>174.6775590945865</v>
+        <v>174.6775590945866</v>
       </c>
       <c r="K33" t="n">
         <v>298.5517707249149</v>
@@ -33508,13 +33508,13 @@
         <v>401.4396993165362</v>
       </c>
       <c r="M33" t="n">
-        <v>468.4611944150346</v>
+        <v>468.4611944150347</v>
       </c>
       <c r="N33" t="n">
         <v>480.8599682814116</v>
       </c>
       <c r="O33" t="n">
-        <v>439.8929273573202</v>
+        <v>439.8929273573203</v>
       </c>
       <c r="P33" t="n">
         <v>353.0528558497799</v>
@@ -33529,7 +33529,7 @@
         <v>34.34192761550408</v>
       </c>
       <c r="T33" t="n">
-        <v>7.452238837933473</v>
+        <v>7.452238837933474</v>
       </c>
       <c r="U33" t="n">
         <v>0.1216361072568033</v>
@@ -33584,7 +33584,7 @@
         <v>180.0852478455149</v>
       </c>
       <c r="L34" t="n">
-        <v>230.4471160614672</v>
+        <v>230.4471160614673</v>
       </c>
       <c r="M34" t="n">
         <v>242.9741728169181</v>
@@ -33602,7 +33602,7 @@
         <v>129.7938355168261</v>
       </c>
       <c r="R34" t="n">
-        <v>69.69496368105763</v>
+        <v>69.69496368105764</v>
       </c>
       <c r="S34" t="n">
         <v>27.01278717682723</v>
@@ -33611,7 +33611,7 @@
         <v>6.622853402769326</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08454706471620428</v>
+        <v>0.0845470647162043</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,10 +33648,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.455524923074339</v>
+        <v>3.45552492307434</v>
       </c>
       <c r="H35" t="n">
-        <v>35.38889461843509</v>
+        <v>35.3888946184351</v>
       </c>
       <c r="I35" t="n">
         <v>133.2191245968236</v>
@@ -33666,16 +33666,16 @@
         <v>545.3077492980543</v>
       </c>
       <c r="M35" t="n">
-        <v>606.7599406487775</v>
+        <v>606.7599406487776</v>
       </c>
       <c r="N35" t="n">
         <v>616.5779508364626</v>
       </c>
       <c r="O35" t="n">
-        <v>582.217074882642</v>
+        <v>582.2170748826421</v>
       </c>
       <c r="P35" t="n">
-        <v>496.9088033442442</v>
+        <v>496.9088033442443</v>
       </c>
       <c r="Q35" t="n">
         <v>373.1578170366444</v>
@@ -33730,13 +33730,13 @@
         <v>1.848868830303409</v>
       </c>
       <c r="H36" t="n">
-        <v>17.85618054529871</v>
+        <v>17.85618054529872</v>
       </c>
       <c r="I36" t="n">
-        <v>63.65622946439368</v>
+        <v>63.65622946439369</v>
       </c>
       <c r="J36" t="n">
-        <v>174.6775590945865</v>
+        <v>174.6775590945866</v>
       </c>
       <c r="K36" t="n">
         <v>298.5517707249149</v>
@@ -33745,13 +33745,13 @@
         <v>401.4396993165362</v>
       </c>
       <c r="M36" t="n">
-        <v>468.4611944150346</v>
+        <v>468.4611944150347</v>
       </c>
       <c r="N36" t="n">
         <v>480.8599682814116</v>
       </c>
       <c r="O36" t="n">
-        <v>439.8929273573202</v>
+        <v>439.8929273573203</v>
       </c>
       <c r="P36" t="n">
         <v>353.0528558497799</v>
@@ -33766,7 +33766,7 @@
         <v>34.34192761550408</v>
       </c>
       <c r="T36" t="n">
-        <v>7.452238837933473</v>
+        <v>7.452238837933474</v>
       </c>
       <c r="U36" t="n">
         <v>0.1216361072568033</v>
@@ -33821,7 +33821,7 @@
         <v>180.0852478455149</v>
       </c>
       <c r="L37" t="n">
-        <v>230.4471160614672</v>
+        <v>230.4471160614673</v>
       </c>
       <c r="M37" t="n">
         <v>242.9741728169181</v>
@@ -33839,7 +33839,7 @@
         <v>129.7938355168261</v>
       </c>
       <c r="R37" t="n">
-        <v>69.69496368105763</v>
+        <v>69.69496368105764</v>
       </c>
       <c r="S37" t="n">
         <v>27.01278717682723</v>
@@ -33848,7 +33848,7 @@
         <v>6.622853402769326</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08454706471620428</v>
+        <v>0.0845470647162043</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,10 +33885,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.455524923074339</v>
+        <v>3.45552492307434</v>
       </c>
       <c r="H38" t="n">
-        <v>35.38889461843509</v>
+        <v>35.3888946184351</v>
       </c>
       <c r="I38" t="n">
         <v>133.2191245968236</v>
@@ -33903,16 +33903,16 @@
         <v>545.3077492980543</v>
       </c>
       <c r="M38" t="n">
-        <v>606.7599406487775</v>
+        <v>606.7599406487776</v>
       </c>
       <c r="N38" t="n">
         <v>616.5779508364626</v>
       </c>
       <c r="O38" t="n">
-        <v>582.217074882642</v>
+        <v>582.2170748826421</v>
       </c>
       <c r="P38" t="n">
-        <v>496.9088033442442</v>
+        <v>496.9088033442443</v>
       </c>
       <c r="Q38" t="n">
         <v>373.1578170366444</v>
@@ -33967,13 +33967,13 @@
         <v>1.848868830303409</v>
       </c>
       <c r="H39" t="n">
-        <v>17.85618054529871</v>
+        <v>17.85618054529872</v>
       </c>
       <c r="I39" t="n">
-        <v>63.65622946439368</v>
+        <v>63.65622946439369</v>
       </c>
       <c r="J39" t="n">
-        <v>174.6775590945865</v>
+        <v>174.6775590945866</v>
       </c>
       <c r="K39" t="n">
         <v>298.5517707249149</v>
@@ -33982,13 +33982,13 @@
         <v>401.4396993165362</v>
       </c>
       <c r="M39" t="n">
-        <v>468.4611944150346</v>
+        <v>468.4611944150347</v>
       </c>
       <c r="N39" t="n">
         <v>480.8599682814116</v>
       </c>
       <c r="O39" t="n">
-        <v>439.8929273573202</v>
+        <v>439.8929273573203</v>
       </c>
       <c r="P39" t="n">
         <v>353.0528558497799</v>
@@ -34003,7 +34003,7 @@
         <v>34.34192761550408</v>
       </c>
       <c r="T39" t="n">
-        <v>7.452238837933473</v>
+        <v>7.452238837933474</v>
       </c>
       <c r="U39" t="n">
         <v>0.1216361072568033</v>
@@ -34058,7 +34058,7 @@
         <v>180.0852478455149</v>
       </c>
       <c r="L40" t="n">
-        <v>230.4471160614672</v>
+        <v>230.4471160614673</v>
       </c>
       <c r="M40" t="n">
         <v>242.9741728169181</v>
@@ -34076,7 +34076,7 @@
         <v>129.7938355168261</v>
       </c>
       <c r="R40" t="n">
-        <v>69.69496368105763</v>
+        <v>69.69496368105764</v>
       </c>
       <c r="S40" t="n">
         <v>27.01278717682723</v>
@@ -34085,7 +34085,7 @@
         <v>6.622853402769326</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08454706471620428</v>
+        <v>0.0845470647162043</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,10 +34122,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.455524923074339</v>
+        <v>3.45552492307434</v>
       </c>
       <c r="H41" t="n">
-        <v>35.38889461843509</v>
+        <v>35.3888946184351</v>
       </c>
       <c r="I41" t="n">
         <v>133.2191245968236</v>
@@ -34140,16 +34140,16 @@
         <v>545.3077492980543</v>
       </c>
       <c r="M41" t="n">
-        <v>606.7599406487775</v>
+        <v>606.7599406487776</v>
       </c>
       <c r="N41" t="n">
         <v>616.5779508364626</v>
       </c>
       <c r="O41" t="n">
-        <v>582.217074882642</v>
+        <v>582.2170748826421</v>
       </c>
       <c r="P41" t="n">
-        <v>496.9088033442442</v>
+        <v>496.9088033442443</v>
       </c>
       <c r="Q41" t="n">
         <v>373.1578170366444</v>
@@ -34204,13 +34204,13 @@
         <v>1.848868830303409</v>
       </c>
       <c r="H42" t="n">
-        <v>17.85618054529871</v>
+        <v>17.85618054529872</v>
       </c>
       <c r="I42" t="n">
-        <v>63.65622946439368</v>
+        <v>63.65622946439369</v>
       </c>
       <c r="J42" t="n">
-        <v>174.6775590945865</v>
+        <v>174.6775590945866</v>
       </c>
       <c r="K42" t="n">
         <v>298.5517707249149</v>
@@ -34219,13 +34219,13 @@
         <v>401.4396993165362</v>
       </c>
       <c r="M42" t="n">
-        <v>468.4611944150346</v>
+        <v>468.4611944150347</v>
       </c>
       <c r="N42" t="n">
         <v>480.8599682814116</v>
       </c>
       <c r="O42" t="n">
-        <v>439.8929273573202</v>
+        <v>439.8929273573203</v>
       </c>
       <c r="P42" t="n">
         <v>353.0528558497799</v>
@@ -34240,7 +34240,7 @@
         <v>34.34192761550408</v>
       </c>
       <c r="T42" t="n">
-        <v>7.452238837933473</v>
+        <v>7.452238837933474</v>
       </c>
       <c r="U42" t="n">
         <v>0.1216361072568033</v>
@@ -34295,7 +34295,7 @@
         <v>180.0852478455149</v>
       </c>
       <c r="L43" t="n">
-        <v>230.4471160614672</v>
+        <v>230.4471160614673</v>
       </c>
       <c r="M43" t="n">
         <v>242.9741728169181</v>
@@ -34313,7 +34313,7 @@
         <v>129.7938355168261</v>
       </c>
       <c r="R43" t="n">
-        <v>69.69496368105763</v>
+        <v>69.69496368105764</v>
       </c>
       <c r="S43" t="n">
         <v>27.01278717682723</v>
@@ -34322,7 +34322,7 @@
         <v>6.622853402769326</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08454706471620428</v>
+        <v>0.0845470647162043</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,10 +34359,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.455524923074339</v>
+        <v>3.45552492307434</v>
       </c>
       <c r="H44" t="n">
-        <v>35.38889461843509</v>
+        <v>35.3888946184351</v>
       </c>
       <c r="I44" t="n">
         <v>133.2191245968236</v>
@@ -34377,16 +34377,16 @@
         <v>545.3077492980543</v>
       </c>
       <c r="M44" t="n">
-        <v>606.7599406487775</v>
+        <v>606.7599406487776</v>
       </c>
       <c r="N44" t="n">
         <v>616.5779508364626</v>
       </c>
       <c r="O44" t="n">
-        <v>582.217074882642</v>
+        <v>582.2170748826421</v>
       </c>
       <c r="P44" t="n">
-        <v>496.9088033442442</v>
+        <v>496.9088033442443</v>
       </c>
       <c r="Q44" t="n">
         <v>373.1578170366444</v>
@@ -34441,13 +34441,13 @@
         <v>1.848868830303409</v>
       </c>
       <c r="H45" t="n">
-        <v>17.85618054529871</v>
+        <v>17.85618054529872</v>
       </c>
       <c r="I45" t="n">
-        <v>63.65622946439368</v>
+        <v>63.65622946439369</v>
       </c>
       <c r="J45" t="n">
-        <v>174.6775590945865</v>
+        <v>174.6775590945866</v>
       </c>
       <c r="K45" t="n">
         <v>298.5517707249149</v>
@@ -34456,13 +34456,13 @@
         <v>401.4396993165362</v>
       </c>
       <c r="M45" t="n">
-        <v>468.4611944150346</v>
+        <v>468.4611944150347</v>
       </c>
       <c r="N45" t="n">
         <v>480.8599682814116</v>
       </c>
       <c r="O45" t="n">
-        <v>439.8929273573202</v>
+        <v>439.8929273573203</v>
       </c>
       <c r="P45" t="n">
         <v>353.0528558497799</v>
@@ -34477,7 +34477,7 @@
         <v>34.34192761550408</v>
       </c>
       <c r="T45" t="n">
-        <v>7.452238837933473</v>
+        <v>7.452238837933474</v>
       </c>
       <c r="U45" t="n">
         <v>0.1216361072568033</v>
@@ -34532,7 +34532,7 @@
         <v>180.0852478455149</v>
       </c>
       <c r="L46" t="n">
-        <v>230.4471160614672</v>
+        <v>230.4471160614673</v>
       </c>
       <c r="M46" t="n">
         <v>242.9741728169181</v>
@@ -34550,7 +34550,7 @@
         <v>129.7938355168261</v>
       </c>
       <c r="R46" t="n">
-        <v>69.69496368105763</v>
+        <v>69.69496368105764</v>
       </c>
       <c r="S46" t="n">
         <v>27.01278717682723</v>
@@ -34559,7 +34559,7 @@
         <v>6.622853402769326</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08454706471620428</v>
+        <v>0.0845470647162043</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="M2" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="N2" t="n">
         <v>14.68444509028111</v>
       </c>
-      <c r="N2" t="n">
-        <v>15.30273751513505</v>
-      </c>
       <c r="O2" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,19 +34780,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>14.68444509028111</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>15.30273751513505</v>
@@ -34941,7 +34941,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>15.30273751513505</v>
@@ -34950,10 +34950,10 @@
         <v>15.30273751513505</v>
       </c>
       <c r="O5" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="P5" t="n">
         <v>14.68444509028111</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,19 +35017,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>14.68444509028111</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>14.68444509028111</v>
       </c>
       <c r="P6" t="n">
         <v>15.30273751513505</v>
@@ -35099,7 +35099,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>15.30273751513505</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="M7" t="n">
         <v>15.30273751513505</v>
@@ -35108,7 +35108,7 @@
         <v>15.30273751513505</v>
       </c>
       <c r="O7" t="n">
-        <v>14.68444509028111</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35175,7 +35175,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L8" t="n">
         <v>25.62029119463083</v>
@@ -35184,13 +35184,13 @@
         <v>25.62029119463083</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="O8" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>281.3340690851685</v>
+        <v>112.2374539130947</v>
       </c>
       <c r="K11" t="n">
         <v>219.4658773885374</v>
@@ -35418,7 +35418,7 @@
         <v>309.5413343280671</v>
       </c>
       <c r="M11" t="n">
-        <v>376.4137074215049</v>
+        <v>643.3828301053391</v>
       </c>
       <c r="N11" t="n">
         <v>387.1648872398717</v>
@@ -35430,7 +35430,7 @@
         <v>265.6758075889747</v>
       </c>
       <c r="Q11" t="n">
-        <v>288.6275085375152</v>
+        <v>190.755001025755</v>
       </c>
       <c r="R11" t="n">
         <v>67.19399950791902</v>
@@ -35491,7 +35491,7 @@
         <v>173.9309677683287</v>
       </c>
       <c r="K12" t="n">
-        <v>425.1755687631345</v>
+        <v>160.710331750556</v>
       </c>
       <c r="L12" t="n">
         <v>262.8853195366621</v>
@@ -35500,13 +35500,13 @@
         <v>326.3271604930164</v>
       </c>
       <c r="N12" t="n">
-        <v>349.5182561980783</v>
+        <v>482.7423769983942</v>
       </c>
       <c r="O12" t="n">
-        <v>484.5183353405501</v>
+        <v>297.2966829128758</v>
       </c>
       <c r="P12" t="n">
-        <v>219.0784484354497</v>
+        <v>537.5412170753868</v>
       </c>
       <c r="Q12" t="n">
         <v>306.1019980232943</v>
@@ -35649,28 +35649,28 @@
         <v>281.3340690851685</v>
       </c>
       <c r="K14" t="n">
-        <v>219.4658773885373</v>
+        <v>219.4658773885374</v>
       </c>
       <c r="L14" t="n">
         <v>309.5413343280671</v>
       </c>
       <c r="M14" t="n">
-        <v>376.4137074215048</v>
+        <v>376.4137074215049</v>
       </c>
       <c r="N14" t="n">
         <v>387.1648872398717</v>
       </c>
       <c r="O14" t="n">
-        <v>352.1188634609553</v>
+        <v>352.1188634609554</v>
       </c>
       <c r="P14" t="n">
         <v>265.6758075889747</v>
       </c>
       <c r="Q14" t="n">
-        <v>288.6275085375152</v>
+        <v>288.6275085375156</v>
       </c>
       <c r="R14" t="n">
-        <v>67.19399950791899</v>
+        <v>67.19399950791902</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,28 +35728,28 @@
         <v>173.9309677683287</v>
       </c>
       <c r="K15" t="n">
-        <v>160.7103317505559</v>
+        <v>425.1755687631345</v>
       </c>
       <c r="L15" t="n">
-        <v>262.885319536662</v>
+        <v>450.1069719643368</v>
       </c>
       <c r="M15" t="n">
-        <v>469.5152612234976</v>
+        <v>326.3271604930164</v>
       </c>
       <c r="N15" t="n">
-        <v>643.3828301053389</v>
+        <v>349.5182561980783</v>
       </c>
       <c r="O15" t="n">
         <v>297.2966829128758</v>
       </c>
       <c r="P15" t="n">
-        <v>219.0784484354496</v>
+        <v>219.0784484354497</v>
       </c>
       <c r="Q15" t="n">
         <v>306.1019980232943</v>
       </c>
       <c r="R15" t="n">
-        <v>14.63421480251066</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>16.22790693298053</v>
+        <v>16.22790693298055</v>
       </c>
       <c r="K16" t="n">
         <v>157.815756019632</v>
       </c>
       <c r="L16" t="n">
-        <v>258.0371413217833</v>
+        <v>258.0371413217834</v>
       </c>
       <c r="M16" t="n">
         <v>282.5580497787587</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>281.3340690851685</v>
+        <v>206.7944598005845</v>
       </c>
       <c r="K17" t="n">
-        <v>219.4658773885373</v>
+        <v>219.4658773885374</v>
       </c>
       <c r="L17" t="n">
         <v>309.5413343280671</v>
       </c>
       <c r="M17" t="n">
-        <v>376.4137074215048</v>
+        <v>376.4137074215049</v>
       </c>
       <c r="N17" t="n">
         <v>387.1648872398717</v>
       </c>
       <c r="O17" t="n">
-        <v>352.1188634609553</v>
+        <v>352.1188634609554</v>
       </c>
       <c r="P17" t="n">
         <v>265.6758075889747</v>
       </c>
       <c r="Q17" t="n">
-        <v>288.6275085375156</v>
+        <v>363.1671178220996</v>
       </c>
       <c r="R17" t="n">
-        <v>67.19399950791899</v>
+        <v>67.19399950791902</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,25 +35968,25 @@
         <v>425.1755687631345</v>
       </c>
       <c r="L18" t="n">
-        <v>262.885319536662</v>
+        <v>262.8853195366621</v>
       </c>
       <c r="M18" t="n">
-        <v>326.3271604930163</v>
+        <v>326.3271604930164</v>
       </c>
       <c r="N18" t="n">
-        <v>349.5182561980782</v>
+        <v>349.5182561980783</v>
       </c>
       <c r="O18" t="n">
         <v>297.2966829128758</v>
       </c>
       <c r="P18" t="n">
-        <v>391.6658860606134</v>
+        <v>537.5412170753868</v>
       </c>
       <c r="Q18" t="n">
-        <v>306.1019980232943</v>
+        <v>174.8608818110314</v>
       </c>
       <c r="R18" t="n">
-        <v>14.63421480251066</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>16.22790693298053</v>
+        <v>16.22790693298055</v>
       </c>
       <c r="K19" t="n">
         <v>157.815756019632</v>
       </c>
       <c r="L19" t="n">
-        <v>258.0371413217833</v>
+        <v>258.0371413217834</v>
       </c>
       <c r="M19" t="n">
         <v>282.5580497787587</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7944598005845</v>
+        <v>112.2374539130947</v>
       </c>
       <c r="K20" t="n">
-        <v>219.4658773885373</v>
+        <v>219.4658773885374</v>
       </c>
       <c r="L20" t="n">
         <v>309.5413343280671</v>
       </c>
       <c r="M20" t="n">
-        <v>376.4137074215048</v>
+        <v>376.4137074215049</v>
       </c>
       <c r="N20" t="n">
         <v>387.1648872398717</v>
       </c>
       <c r="O20" t="n">
-        <v>352.1188634609553</v>
+        <v>352.1188634609554</v>
       </c>
       <c r="P20" t="n">
-        <v>265.6758075889747</v>
+        <v>572.547804136369</v>
       </c>
       <c r="Q20" t="n">
-        <v>363.1671178220996</v>
+        <v>150.8521271621949</v>
       </c>
       <c r="R20" t="n">
-        <v>67.19399950791899</v>
+        <v>67.19399950791902</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,28 +36202,28 @@
         <v>173.9309677683287</v>
       </c>
       <c r="K21" t="n">
-        <v>425.1755687631345</v>
+        <v>293.9344525508718</v>
       </c>
       <c r="L21" t="n">
-        <v>262.885319536662</v>
+        <v>262.8853195366621</v>
       </c>
       <c r="M21" t="n">
-        <v>326.3271604930163</v>
+        <v>326.3271604930164</v>
       </c>
       <c r="N21" t="n">
-        <v>349.5182561980782</v>
+        <v>349.5182561980783</v>
       </c>
       <c r="O21" t="n">
         <v>297.2966829128758</v>
       </c>
       <c r="P21" t="n">
-        <v>391.6658860606129</v>
+        <v>537.5412170753868</v>
       </c>
       <c r="Q21" t="n">
         <v>306.1019980232943</v>
       </c>
       <c r="R21" t="n">
-        <v>14.63421480251066</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>16.22790693298053</v>
+        <v>16.22790693298055</v>
       </c>
       <c r="K22" t="n">
         <v>157.815756019632</v>
       </c>
       <c r="L22" t="n">
-        <v>258.0371413217833</v>
+        <v>258.0371413217834</v>
       </c>
       <c r="M22" t="n">
         <v>282.5580497787587</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>281.3340690851685</v>
+        <v>130.5270068279809</v>
       </c>
       <c r="K23" t="n">
-        <v>543.611289959702</v>
+        <v>543.6112899597022</v>
       </c>
       <c r="L23" t="n">
         <v>727.2025488785175</v>
       </c>
       <c r="M23" t="n">
-        <v>675.1201786571501</v>
+        <v>825.9272409143374</v>
       </c>
       <c r="N23" t="n">
         <v>824.5118116518559</v>
       </c>
       <c r="O23" t="n">
-        <v>732.9190447237006</v>
+        <v>732.9190447237007</v>
       </c>
       <c r="P23" t="n">
-        <v>587.4745157604573</v>
+        <v>587.4745157604574</v>
       </c>
       <c r="Q23" t="n">
         <v>363.1671178220996</v>
       </c>
       <c r="R23" t="n">
-        <v>67.19399950791899</v>
+        <v>67.19399950791902</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,25 +36442,25 @@
         <v>425.1755687631345</v>
       </c>
       <c r="L24" t="n">
-        <v>435.4727571618257</v>
+        <v>262.8853195366621</v>
       </c>
       <c r="M24" t="n">
-        <v>326.3271604930163</v>
+        <v>326.3271604930164</v>
       </c>
       <c r="N24" t="n">
-        <v>349.5182561980782</v>
+        <v>349.5182561980783</v>
       </c>
       <c r="O24" t="n">
         <v>297.2966829128758</v>
       </c>
       <c r="P24" t="n">
-        <v>219.0784484354496</v>
+        <v>406.300100863124</v>
       </c>
       <c r="Q24" t="n">
         <v>306.1019980232943</v>
       </c>
       <c r="R24" t="n">
-        <v>14.63421480251066</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>16.22790693298053</v>
+        <v>16.22790693298055</v>
       </c>
       <c r="K25" t="n">
         <v>157.815756019632</v>
       </c>
       <c r="L25" t="n">
-        <v>258.0371413217833</v>
+        <v>258.0371413217834</v>
       </c>
       <c r="M25" t="n">
         <v>282.5580497787587</v>
@@ -36597,28 +36597,28 @@
         <v>281.3340690851685</v>
       </c>
       <c r="K26" t="n">
-        <v>543.611289959702</v>
+        <v>543.6112899597022</v>
       </c>
       <c r="L26" t="n">
         <v>727.2025488785175</v>
       </c>
       <c r="M26" t="n">
-        <v>675.1201786571501</v>
+        <v>825.9272409143374</v>
       </c>
       <c r="N26" t="n">
         <v>824.5118116518559</v>
       </c>
       <c r="O26" t="n">
-        <v>732.9190447237006</v>
+        <v>732.9190447237007</v>
       </c>
       <c r="P26" t="n">
-        <v>587.4745157604573</v>
+        <v>587.4745157604574</v>
       </c>
       <c r="Q26" t="n">
-        <v>363.1671178220996</v>
+        <v>278.0764754378936</v>
       </c>
       <c r="R26" t="n">
-        <v>67.19399950791899</v>
+        <v>1.477579634936575</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,25 +36679,25 @@
         <v>425.1755687631345</v>
       </c>
       <c r="L27" t="n">
-        <v>435.4727571618257</v>
+        <v>262.8853195366621</v>
       </c>
       <c r="M27" t="n">
-        <v>326.3271604930163</v>
+        <v>326.3271604930164</v>
       </c>
       <c r="N27" t="n">
-        <v>349.5182561980782</v>
+        <v>349.5182561980783</v>
       </c>
       <c r="O27" t="n">
         <v>297.2966829128758</v>
       </c>
       <c r="P27" t="n">
-        <v>219.0784484354496</v>
+        <v>406.300100863124</v>
       </c>
       <c r="Q27" t="n">
         <v>306.1019980232943</v>
       </c>
       <c r="R27" t="n">
-        <v>14.63421480251066</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>16.22790693298053</v>
+        <v>16.22790693298055</v>
       </c>
       <c r="K28" t="n">
         <v>157.815756019632</v>
       </c>
       <c r="L28" t="n">
-        <v>258.0371413217833</v>
+        <v>258.0371413217834</v>
       </c>
       <c r="M28" t="n">
         <v>282.5580497787587</v>
@@ -36834,28 +36834,28 @@
         <v>281.3340690851685</v>
       </c>
       <c r="K29" t="n">
-        <v>543.611289959702</v>
+        <v>458.5206475754966</v>
       </c>
       <c r="L29" t="n">
         <v>727.2025488785175</v>
       </c>
       <c r="M29" t="n">
-        <v>675.1201786571492</v>
+        <v>825.9272409143374</v>
       </c>
       <c r="N29" t="n">
         <v>824.5118116518559</v>
       </c>
       <c r="O29" t="n">
-        <v>732.9190447237006</v>
+        <v>732.9190447237007</v>
       </c>
       <c r="P29" t="n">
-        <v>587.4745157604573</v>
+        <v>587.4745157604574</v>
       </c>
       <c r="Q29" t="n">
         <v>363.1671178220996</v>
       </c>
       <c r="R29" t="n">
-        <v>67.19399950791899</v>
+        <v>1.477579634936575</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,25 +36916,25 @@
         <v>425.1755687631345</v>
       </c>
       <c r="L30" t="n">
-        <v>262.885319536662</v>
+        <v>262.8853195366621</v>
       </c>
       <c r="M30" t="n">
-        <v>326.3271604930163</v>
+        <v>326.3271604930164</v>
       </c>
       <c r="N30" t="n">
-        <v>349.5182561980782</v>
+        <v>349.5182561980783</v>
       </c>
       <c r="O30" t="n">
         <v>297.2966829128758</v>
       </c>
       <c r="P30" t="n">
-        <v>391.6658860606132</v>
+        <v>406.300100863124</v>
       </c>
       <c r="Q30" t="n">
         <v>306.1019980232943</v>
       </c>
       <c r="R30" t="n">
-        <v>14.63421480251066</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>16.22790693298053</v>
+        <v>16.22790693298055</v>
       </c>
       <c r="K31" t="n">
         <v>157.815756019632</v>
       </c>
       <c r="L31" t="n">
-        <v>258.0371413217833</v>
+        <v>258.0371413217834</v>
       </c>
       <c r="M31" t="n">
         <v>282.5580497787587</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>130.527006827981</v>
+        <v>130.5270068279809</v>
       </c>
       <c r="K32" t="n">
-        <v>543.611289959702</v>
+        <v>543.6112899597022</v>
       </c>
       <c r="L32" t="n">
         <v>727.2025488785175</v>
       </c>
       <c r="M32" t="n">
-        <v>825.9272409143373</v>
+        <v>825.9272409143374</v>
       </c>
       <c r="N32" t="n">
         <v>824.5118116518559</v>
       </c>
       <c r="O32" t="n">
-        <v>732.9190447237006</v>
+        <v>732.9190447237007</v>
       </c>
       <c r="P32" t="n">
-        <v>587.4745157604573</v>
+        <v>587.4745157604574</v>
       </c>
       <c r="Q32" t="n">
         <v>363.1671178220996</v>
       </c>
       <c r="R32" t="n">
-        <v>67.19399950791899</v>
+        <v>67.19399950791902</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,25 +37153,25 @@
         <v>425.1755687631345</v>
       </c>
       <c r="L33" t="n">
-        <v>262.885319536662</v>
+        <v>262.8853195366621</v>
       </c>
       <c r="M33" t="n">
-        <v>326.3271604930163</v>
+        <v>326.3271604930164</v>
       </c>
       <c r="N33" t="n">
-        <v>536.7399086257527</v>
+        <v>349.5182561980783</v>
       </c>
       <c r="O33" t="n">
         <v>297.2966829128758</v>
       </c>
       <c r="P33" t="n">
-        <v>219.0784484354496</v>
+        <v>391.6658860606132</v>
       </c>
       <c r="Q33" t="n">
         <v>306.1019980232943</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>14.63421480251067</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>16.22790693298053</v>
+        <v>16.22790693298055</v>
       </c>
       <c r="K34" t="n">
         <v>157.815756019632</v>
       </c>
       <c r="L34" t="n">
-        <v>258.0371413217833</v>
+        <v>258.0371413217834</v>
       </c>
       <c r="M34" t="n">
         <v>282.5580497787587</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>281.3340690851685</v>
+        <v>112.2374539130947</v>
       </c>
       <c r="K35" t="n">
-        <v>219.4658773885373</v>
+        <v>219.4658773885374</v>
       </c>
       <c r="L35" t="n">
         <v>309.5413343280671</v>
       </c>
       <c r="M35" t="n">
-        <v>376.4137074215048</v>
+        <v>643.3828301053389</v>
       </c>
       <c r="N35" t="n">
         <v>387.1648872398717</v>
       </c>
       <c r="O35" t="n">
-        <v>352.1188634609553</v>
+        <v>352.1188634609554</v>
       </c>
       <c r="P35" t="n">
         <v>265.6758075889747</v>
       </c>
       <c r="Q35" t="n">
-        <v>354.3439284104977</v>
+        <v>190.7550010257545</v>
       </c>
       <c r="R35" t="n">
-        <v>1.477579634936546</v>
+        <v>67.19399950791902</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,25 +37390,25 @@
         <v>425.1755687631345</v>
       </c>
       <c r="L36" t="n">
-        <v>262.885319536662</v>
+        <v>262.8853195366621</v>
       </c>
       <c r="M36" t="n">
-        <v>326.3271604930163</v>
+        <v>326.3271604930164</v>
       </c>
       <c r="N36" t="n">
-        <v>349.5182561980782</v>
+        <v>349.5182561980783</v>
       </c>
       <c r="O36" t="n">
         <v>297.2966829128758</v>
       </c>
       <c r="P36" t="n">
-        <v>406.3001008631242</v>
+        <v>391.6658860606134</v>
       </c>
       <c r="Q36" t="n">
         <v>306.1019980232943</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>14.63421480251067</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>16.22790693298053</v>
+        <v>16.22790693298055</v>
       </c>
       <c r="K37" t="n">
         <v>157.815756019632</v>
       </c>
       <c r="L37" t="n">
-        <v>258.0371413217833</v>
+        <v>258.0371413217834</v>
       </c>
       <c r="M37" t="n">
         <v>282.5580497787587</v>
@@ -37545,28 +37545,28 @@
         <v>281.3340690851685</v>
       </c>
       <c r="K38" t="n">
-        <v>357.2412587638582</v>
+        <v>219.4658773885374</v>
       </c>
       <c r="L38" t="n">
         <v>309.5413343280671</v>
       </c>
       <c r="M38" t="n">
-        <v>376.4137074215048</v>
+        <v>376.4137074215049</v>
       </c>
       <c r="N38" t="n">
         <v>387.1648872398717</v>
       </c>
       <c r="O38" t="n">
-        <v>352.1188634609553</v>
+        <v>352.1188634609554</v>
       </c>
       <c r="P38" t="n">
         <v>265.6758075889747</v>
       </c>
       <c r="Q38" t="n">
-        <v>150.8521271621949</v>
+        <v>288.6275085375152</v>
       </c>
       <c r="R38" t="n">
-        <v>67.19399950791899</v>
+        <v>67.19399950791902</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>47.83993242791985</v>
+        <v>173.9309677683287</v>
       </c>
       <c r="K39" t="n">
-        <v>160.7103317505559</v>
+        <v>425.1755687631345</v>
       </c>
       <c r="L39" t="n">
-        <v>262.885319536662</v>
+        <v>262.8853195366621</v>
       </c>
       <c r="M39" t="n">
-        <v>326.3271604930163</v>
+        <v>326.3271604930164</v>
       </c>
       <c r="N39" t="n">
-        <v>458.190338079678</v>
+        <v>349.5182561980783</v>
       </c>
       <c r="O39" t="n">
-        <v>643.3828301053389</v>
+        <v>297.2966829128758</v>
       </c>
       <c r="P39" t="n">
-        <v>537.5412170753868</v>
+        <v>391.6658860606129</v>
       </c>
       <c r="Q39" t="n">
-        <v>96.0247102874452</v>
+        <v>306.1019980232943</v>
       </c>
       <c r="R39" t="n">
-        <v>14.63421480251066</v>
+        <v>14.63421480251067</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>16.22790693298053</v>
+        <v>16.22790693298055</v>
       </c>
       <c r="K40" t="n">
         <v>157.815756019632</v>
       </c>
       <c r="L40" t="n">
-        <v>258.0371413217833</v>
+        <v>258.0371413217834</v>
       </c>
       <c r="M40" t="n">
         <v>282.5580497787587</v>
@@ -37782,28 +37782,28 @@
         <v>281.3340690851685</v>
       </c>
       <c r="K41" t="n">
-        <v>357.2412587638582</v>
+        <v>219.4658773885374</v>
       </c>
       <c r="L41" t="n">
         <v>309.5413343280671</v>
       </c>
       <c r="M41" t="n">
-        <v>376.4137074215048</v>
+        <v>376.4137074215049</v>
       </c>
       <c r="N41" t="n">
         <v>387.1648872398717</v>
       </c>
       <c r="O41" t="n">
-        <v>352.1188634609553</v>
+        <v>352.1188634609554</v>
       </c>
       <c r="P41" t="n">
         <v>265.6758075889747</v>
       </c>
       <c r="Q41" t="n">
-        <v>150.8521271621949</v>
+        <v>288.6275085375152</v>
       </c>
       <c r="R41" t="n">
-        <v>67.19399950791899</v>
+        <v>67.19399950791902</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,25 +37864,25 @@
         <v>425.1755687631345</v>
       </c>
       <c r="L42" t="n">
-        <v>450.1069719643368</v>
+        <v>435.4727571618257</v>
       </c>
       <c r="M42" t="n">
-        <v>326.3271604930163</v>
+        <v>326.3271604930164</v>
       </c>
       <c r="N42" t="n">
-        <v>349.5182561980782</v>
+        <v>349.5182561980783</v>
       </c>
       <c r="O42" t="n">
         <v>297.2966829128758</v>
       </c>
       <c r="P42" t="n">
-        <v>219.0784484354496</v>
+        <v>219.0784484354497</v>
       </c>
       <c r="Q42" t="n">
         <v>306.1019980232943</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>14.63421480251067</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>16.22790693298053</v>
+        <v>16.22790693298055</v>
       </c>
       <c r="K43" t="n">
         <v>157.815756019632</v>
       </c>
       <c r="L43" t="n">
-        <v>258.0371413217833</v>
+        <v>258.0371413217834</v>
       </c>
       <c r="M43" t="n">
         <v>282.5580497787587</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>281.3340690851685</v>
+        <v>112.2374539130947</v>
       </c>
       <c r="K44" t="n">
-        <v>219.4658773885373</v>
+        <v>219.4658773885374</v>
       </c>
       <c r="L44" t="n">
         <v>309.5413343280671</v>
       </c>
       <c r="M44" t="n">
-        <v>376.4137074215048</v>
+        <v>376.4137074215049</v>
       </c>
       <c r="N44" t="n">
         <v>387.1648872398717</v>
       </c>
       <c r="O44" t="n">
-        <v>352.1188634609553</v>
+        <v>352.1188634609554</v>
       </c>
       <c r="P44" t="n">
-        <v>265.6758075889747</v>
+        <v>425.9492333494467</v>
       </c>
       <c r="Q44" t="n">
-        <v>288.6275085375152</v>
+        <v>363.1671178220996</v>
       </c>
       <c r="R44" t="n">
-        <v>67.19399950791899</v>
+        <v>1.477579634936575</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>173.9309677683287</v>
       </c>
       <c r="K45" t="n">
-        <v>425.1755687631345</v>
+        <v>160.710331750556</v>
       </c>
       <c r="L45" t="n">
-        <v>262.885319536662</v>
+        <v>313.7292531931806</v>
       </c>
       <c r="M45" t="n">
-        <v>326.3271604930163</v>
+        <v>643.3828301053389</v>
       </c>
       <c r="N45" t="n">
-        <v>349.5182561980782</v>
+        <v>643.3828301053389</v>
       </c>
       <c r="O45" t="n">
         <v>297.2966829128758</v>
       </c>
       <c r="P45" t="n">
-        <v>406.3001008631238</v>
+        <v>219.0784484354497</v>
       </c>
       <c r="Q45" t="n">
-        <v>306.1019980232943</v>
+        <v>96.02471028744523</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>16.22790693298053</v>
+        <v>16.22790693298055</v>
       </c>
       <c r="K46" t="n">
         <v>157.815756019632</v>
       </c>
       <c r="L46" t="n">
-        <v>258.0371413217833</v>
+        <v>258.0371413217834</v>
       </c>
       <c r="M46" t="n">
         <v>282.5580497787587</v>
